--- a/ShotsAnalysis.xlsx
+++ b/ShotsAnalysis.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3736" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3736" uniqueCount="1470">
   <si>
     <t>Group.1</t>
   </si>
@@ -4196,85 +4196,76 @@
     <t>Zaragoza</t>
   </si>
   <si>
-    <t>31.67%</t>
+    <t>32.79%</t>
   </si>
   <si>
     <t>34.02%</t>
   </si>
   <si>
-    <t>39.74%</t>
-  </si>
-  <si>
-    <t>26.51%</t>
-  </si>
-  <si>
     <t>26.76%</t>
   </si>
   <si>
     <t>24.05%</t>
   </si>
   <si>
-    <t>24.60%</t>
-  </si>
-  <si>
-    <t>32.60%</t>
-  </si>
-  <si>
-    <t>35.25%</t>
-  </si>
-  <si>
-    <t>25.75%</t>
-  </si>
-  <si>
-    <t>33.09%</t>
+    <t>33.15%</t>
+  </si>
+  <si>
+    <t>35.20%</t>
+  </si>
+  <si>
+    <t>35.35%</t>
+  </si>
+  <si>
+    <t>25.33%</t>
+  </si>
+  <si>
+    <t>33.83%</t>
   </si>
   <si>
     <t>27.64%</t>
   </si>
   <si>
-    <t>16.39%</t>
-  </si>
-  <si>
-    <t>17.39%</t>
+    <t>21.79%</t>
   </si>
   <si>
     <t>39.73%</t>
   </si>
   <si>
-    <t>40.66%</t>
+    <t>35.05%</t>
+  </si>
+  <si>
+    <t>44.07%</t>
+  </si>
+  <si>
+    <t>38.14%</t>
   </si>
   <si>
     <t>18.60%</t>
   </si>
   <si>
-    <t>34.00%</t>
-  </si>
-  <si>
-    <t>36.69%</t>
-  </si>
-  <si>
-    <t>24.55%</t>
-  </si>
-  <si>
     <t>34.42%</t>
   </si>
   <si>
-    <t>34.64%</t>
-  </si>
-  <si>
-    <t>34.06%</t>
-  </si>
-  <si>
-    <t>32.21%</t>
-  </si>
-  <si>
-    <t>17.69%</t>
-  </si>
-  <si>
-    <t>31.97%</t>
-  </si>
-  <si>
-    <t>26.57%</t>
+    <t>25.23%</t>
+  </si>
+  <si>
+    <t>39.32%</t>
+  </si>
+  <si>
+    <t>33.76%</t>
+  </si>
+  <si>
+    <t>33.97%</t>
+  </si>
+  <si>
+    <t>23.93%</t>
+  </si>
+  <si>
+    <t>18.67%</t>
+  </si>
+  <si>
+    <t>28.29%</t>
   </si>
   <si>
     <t>t1_games_played</t>
@@ -4385,9 +4376,6 @@
     <t>24.84%</t>
   </si>
   <si>
-    <t>33.76%</t>
-  </si>
-  <si>
     <t>36.65%</t>
   </si>
   <si>
@@ -4434,9 +4422,6 @@
   </si>
   <si>
     <t>29.81%</t>
-  </si>
-  <si>
-    <t>33.83%</t>
   </si>
   <si>
     <t>31.61%</t>
@@ -21751,19 +21736,19 @@
         <v>1365</v>
       </c>
       <c r="C2" t="n">
-        <v>55.0</v>
+        <v>57.0</v>
       </c>
       <c r="D2" t="n">
         <v>54.0</v>
       </c>
       <c r="E2" t="n">
-        <v>109.0</v>
+        <v>111.0</v>
       </c>
       <c r="F2" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.75</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="H2" t="n">
         <v>14.0</v>
@@ -21772,34 +21757,34 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="J2" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="K2" t="s">
-        <v>212</v>
+        <v>888</v>
       </c>
       <c r="L2" t="s">
         <v>134</v>
       </c>
       <c r="M2" t="s">
-        <v>380</v>
+        <v>534</v>
       </c>
       <c r="N2" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="O2" t="n">
-        <v>62.0</v>
+        <v>66.0</v>
       </c>
       <c r="P2" t="n">
         <v>88.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.0</v>
+        <v>154.0</v>
       </c>
       <c r="R2" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.05</v>
+        <v>1.0952380952380953</v>
       </c>
       <c r="T2" t="n">
         <v>30.0</v>
@@ -21808,16 +21793,16 @@
         <v>1.4285714285714286</v>
       </c>
       <c r="V2" t="n">
-        <v>51.0</v>
+        <v>53.0</v>
       </c>
       <c r="W2" t="s">
-        <v>1194</v>
+        <v>1003</v>
       </c>
       <c r="X2" t="s">
         <v>710</v>
       </c>
       <c r="Y2" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="3">
@@ -21828,19 +21813,19 @@
         <v>1366</v>
       </c>
       <c r="C3" t="n">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="D3" t="n">
         <v>66.0</v>
       </c>
       <c r="E3" t="n">
-        <v>126.0</v>
+        <v>127.0</v>
       </c>
       <c r="F3" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.95</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="H3" t="n">
         <v>12.0</v>
@@ -21849,7 +21834,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="J3" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="K3" t="s">
         <v>1387</v>
@@ -21858,25 +21843,25 @@
         <v>1178</v>
       </c>
       <c r="M3" t="s">
-        <v>1393</v>
+        <v>893</v>
       </c>
       <c r="N3" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="O3" t="n">
-        <v>62.0</v>
+        <v>64.0</v>
       </c>
       <c r="P3" t="n">
         <v>56.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>118.0</v>
+        <v>120.0</v>
       </c>
       <c r="R3" t="n">
         <v>20.0</v>
       </c>
       <c r="S3" t="n">
-        <v>1.0</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="T3" t="n">
         <v>19.0</v>
@@ -21888,13 +21873,13 @@
         <v>39.0</v>
       </c>
       <c r="W3" t="s">
-        <v>1134</v>
+        <v>60</v>
       </c>
       <c r="X3" t="s">
         <v>254</v>
       </c>
       <c r="Y3" t="s">
-        <v>1033</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4">
@@ -21908,10 +21893,10 @@
         <v>104.0</v>
       </c>
       <c r="D4" t="n">
-        <v>77.0</v>
+        <v>80.0</v>
       </c>
       <c r="E4" t="n">
-        <v>181.0</v>
+        <v>184.0</v>
       </c>
       <c r="F4" t="n">
         <v>34.0</v>
@@ -21920,34 +21905,34 @@
         <v>1.619047619047619</v>
       </c>
       <c r="H4" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.25</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="J4" t="n">
-        <v>59.0</v>
+        <v>61.0</v>
       </c>
       <c r="K4" t="s">
         <v>1123</v>
       </c>
       <c r="L4" t="s">
-        <v>426</v>
+        <v>703</v>
       </c>
       <c r="M4" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="N4" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="O4" t="n">
         <v>75.0</v>
       </c>
       <c r="P4" t="n">
-        <v>75.0</v>
+        <v>78.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.0</v>
+        <v>153.0</v>
       </c>
       <c r="R4" t="n">
         <v>18.0</v>
@@ -21959,7 +21944,7 @@
         <v>22.0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.1</v>
+        <v>1.0476190476190477</v>
       </c>
       <c r="V4" t="n">
         <v>40.0</v>
@@ -21968,10 +21953,10 @@
         <v>946</v>
       </c>
       <c r="X4" t="s">
-        <v>505</v>
+        <v>428</v>
       </c>
       <c r="Y4" t="s">
-        <v>228</v>
+        <v>961</v>
       </c>
     </row>
     <row r="5">
@@ -21982,19 +21967,19 @@
         <v>1368</v>
       </c>
       <c r="C5" t="n">
-        <v>67.0</v>
+        <v>70.0</v>
       </c>
       <c r="D5" t="n">
         <v>55.0</v>
       </c>
       <c r="E5" t="n">
-        <v>122.0</v>
+        <v>125.0</v>
       </c>
       <c r="F5" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.3</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="H5" t="n">
         <v>17.0</v>
@@ -22003,34 +21988,34 @@
         <v>0.8095238095238095</v>
       </c>
       <c r="J5" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="K5" t="s">
-        <v>322</v>
+        <v>732</v>
       </c>
       <c r="L5" t="s">
         <v>143</v>
       </c>
       <c r="M5" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="N5" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="O5" t="n">
-        <v>66.0</v>
+        <v>72.0</v>
       </c>
       <c r="P5" t="n">
         <v>73.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>139.0</v>
+        <v>145.0</v>
       </c>
       <c r="R5" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.1</v>
+        <v>1.0952380952380953</v>
       </c>
       <c r="T5" t="n">
         <v>29.0</v>
@@ -22039,16 +22024,16 @@
         <v>1.380952380952381</v>
       </c>
       <c r="V5" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="W5" t="s">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="X5" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="Y5" t="s">
-        <v>1405</v>
+        <v>849</v>
       </c>
     </row>
     <row r="6">
@@ -22062,10 +22047,10 @@
         <v>48.0</v>
       </c>
       <c r="D6" t="n">
-        <v>49.0</v>
+        <v>51.0</v>
       </c>
       <c r="E6" t="n">
-        <v>97.0</v>
+        <v>99.0</v>
       </c>
       <c r="F6" t="n">
         <v>21.0</v>
@@ -22077,7 +22062,7 @@
         <v>14.0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J6" t="n">
         <v>35.0</v>
@@ -22086,22 +22071,22 @@
         <v>541</v>
       </c>
       <c r="L6" t="s">
-        <v>116</v>
+        <v>889</v>
       </c>
       <c r="M6" t="s">
-        <v>832</v>
+        <v>1393</v>
       </c>
       <c r="N6" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="O6" t="n">
         <v>79.0</v>
       </c>
       <c r="P6" t="n">
-        <v>92.0</v>
+        <v>97.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>171.0</v>
+        <v>176.0</v>
       </c>
       <c r="R6" t="n">
         <v>20.0</v>
@@ -22110,22 +22095,22 @@
         <v>0.9523809523809523</v>
       </c>
       <c r="T6" t="n">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="U6" t="n">
-        <v>1.55</v>
+        <v>1.619047619047619</v>
       </c>
       <c r="V6" t="n">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
       <c r="W6" t="s">
         <v>337</v>
       </c>
       <c r="X6" t="s">
-        <v>335</v>
+        <v>1399</v>
       </c>
       <c r="Y6" t="s">
-        <v>1195</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="7">
@@ -22139,10 +22124,10 @@
         <v>108.0</v>
       </c>
       <c r="D7" t="n">
-        <v>79.0</v>
+        <v>81.0</v>
       </c>
       <c r="E7" t="n">
-        <v>187.0</v>
+        <v>189.0</v>
       </c>
       <c r="F7" t="n">
         <v>41.0</v>
@@ -22154,7 +22139,7 @@
         <v>30.0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.5</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="J7" t="n">
         <v>71.0</v>
@@ -22163,22 +22148,22 @@
         <v>567</v>
       </c>
       <c r="L7" t="s">
-        <v>698</v>
+        <v>657</v>
       </c>
       <c r="M7" t="s">
-        <v>698</v>
+        <v>718</v>
       </c>
       <c r="N7" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="O7" t="n">
         <v>52.0</v>
       </c>
       <c r="P7" t="n">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>110.0</v>
+        <v>111.0</v>
       </c>
       <c r="R7" t="n">
         <v>12.0</v>
@@ -22187,22 +22172,22 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="T7" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.75</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="V7" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="W7" t="s">
         <v>190</v>
       </c>
       <c r="X7" t="s">
-        <v>88</v>
+        <v>713</v>
       </c>
       <c r="Y7" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="8">
@@ -22216,10 +22201,10 @@
         <v>84.0</v>
       </c>
       <c r="D8" t="n">
-        <v>83.0</v>
+        <v>87.0</v>
       </c>
       <c r="E8" t="n">
-        <v>167.0</v>
+        <v>171.0</v>
       </c>
       <c r="F8" t="n">
         <v>21.0</v>
@@ -22228,34 +22213,34 @@
         <v>1.0</v>
       </c>
       <c r="H8" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.1</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="J8" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="K8" t="s">
         <v>146</v>
       </c>
       <c r="L8" t="s">
-        <v>1390</v>
+        <v>69</v>
       </c>
       <c r="M8" t="s">
-        <v>1396</v>
+        <v>86</v>
       </c>
       <c r="N8" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="O8" t="n">
         <v>58.0</v>
       </c>
       <c r="P8" t="n">
-        <v>57.0</v>
+        <v>59.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>115.0</v>
+        <v>117.0</v>
       </c>
       <c r="R8" t="n">
         <v>20.0</v>
@@ -22264,22 +22249,22 @@
         <v>0.9523809523809523</v>
       </c>
       <c r="T8" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.25</v>
+        <v>1.2380952380952381</v>
       </c>
       <c r="V8" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="W8" t="s">
         <v>73</v>
       </c>
       <c r="X8" t="s">
-        <v>840</v>
+        <v>1400</v>
       </c>
       <c r="Y8" t="s">
-        <v>633</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="9">
@@ -22293,10 +22278,10 @@
         <v>65.0</v>
       </c>
       <c r="D9" t="n">
-        <v>74.0</v>
+        <v>80.0</v>
       </c>
       <c r="E9" t="n">
-        <v>139.0</v>
+        <v>145.0</v>
       </c>
       <c r="F9" t="n">
         <v>22.0</v>
@@ -22305,34 +22290,34 @@
         <v>1.0476190476190477</v>
       </c>
       <c r="H9" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.2</v>
+        <v>1.1904761904761905</v>
       </c>
       <c r="J9" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="K9" t="s">
         <v>630</v>
       </c>
       <c r="L9" t="s">
-        <v>565</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>1397</v>
+        <v>966</v>
       </c>
       <c r="N9" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="O9" t="n">
         <v>64.0</v>
       </c>
       <c r="P9" t="n">
-        <v>81.0</v>
+        <v>84.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>145.0</v>
+        <v>148.0</v>
       </c>
       <c r="R9" t="n">
         <v>12.0</v>
@@ -22341,22 +22326,22 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="T9" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.15</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="V9" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="W9" t="s">
         <v>1221</v>
       </c>
       <c r="X9" t="s">
-        <v>219</v>
+        <v>116</v>
       </c>
       <c r="Y9" t="s">
-        <v>424</v>
+        <v>817</v>
       </c>
     </row>
     <row r="10">
@@ -22370,10 +22355,10 @@
         <v>96.0</v>
       </c>
       <c r="D10" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="E10" t="n">
-        <v>148.0</v>
+        <v>150.0</v>
       </c>
       <c r="F10" t="n">
         <v>34.0</v>
@@ -22382,34 +22367,34 @@
         <v>1.619047619047619</v>
       </c>
       <c r="H10" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.55</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="J10" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="K10" t="s">
         <v>278</v>
       </c>
       <c r="L10" t="s">
-        <v>1223</v>
+        <v>376</v>
       </c>
       <c r="M10" t="s">
-        <v>1016</v>
+        <v>98</v>
       </c>
       <c r="N10" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="O10" t="n">
         <v>69.0</v>
       </c>
       <c r="P10" t="n">
-        <v>85.0</v>
+        <v>88.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>154.0</v>
+        <v>157.0</v>
       </c>
       <c r="R10" t="n">
         <v>23.0</v>
@@ -22421,7 +22406,7 @@
         <v>30.0</v>
       </c>
       <c r="U10" t="n">
-        <v>1.5</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="V10" t="n">
         <v>53.0</v>
@@ -22430,10 +22415,10 @@
         <v>70</v>
       </c>
       <c r="X10" t="s">
-        <v>490</v>
+        <v>710</v>
       </c>
       <c r="Y10" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="11">
@@ -22447,10 +22432,10 @@
         <v>84.0</v>
       </c>
       <c r="D11" t="n">
-        <v>67.0</v>
+        <v>76.0</v>
       </c>
       <c r="E11" t="n">
-        <v>151.0</v>
+        <v>160.0</v>
       </c>
       <c r="F11" t="n">
         <v>28.0</v>
@@ -22459,25 +22444,25 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9</v>
+        <v>1.0952380952380953</v>
       </c>
       <c r="J11" t="n">
-        <v>46.0</v>
+        <v>51.0</v>
       </c>
       <c r="K11" t="s">
         <v>70</v>
       </c>
       <c r="L11" t="s">
-        <v>446</v>
+        <v>288</v>
       </c>
       <c r="M11" t="s">
-        <v>661</v>
+        <v>242</v>
       </c>
       <c r="N11" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="O11" t="n">
         <v>58.0</v>
@@ -22498,7 +22483,7 @@
         <v>20.0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.0</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="V11" t="n">
         <v>32.0</v>
@@ -22521,19 +22506,19 @@
         <v>1375</v>
       </c>
       <c r="C12" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="D12" t="n">
         <v>52.0</v>
       </c>
       <c r="E12" t="n">
-        <v>95.0</v>
+        <v>98.0</v>
       </c>
       <c r="F12" t="n">
         <v>15.0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H12" t="n">
         <v>13.0</v>
@@ -22545,31 +22530,31 @@
         <v>28.0</v>
       </c>
       <c r="K12" t="s">
-        <v>238</v>
+        <v>639</v>
       </c>
       <c r="L12" t="s">
         <v>146</v>
       </c>
       <c r="M12" t="s">
-        <v>549</v>
+        <v>116</v>
       </c>
       <c r="N12" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="O12" t="n">
-        <v>68.0</v>
+        <v>70.0</v>
       </c>
       <c r="P12" t="n">
         <v>86.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>154.0</v>
+        <v>156.0</v>
       </c>
       <c r="R12" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="S12" t="n">
-        <v>1.15</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="T12" t="n">
         <v>29.0</v>
@@ -22578,16 +22563,16 @@
         <v>1.380952380952381</v>
       </c>
       <c r="V12" t="n">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="W12" t="s">
-        <v>1354</v>
+        <v>1255</v>
       </c>
       <c r="X12" t="s">
         <v>277</v>
       </c>
       <c r="Y12" t="s">
-        <v>753</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="13">
@@ -22601,10 +22586,10 @@
         <v>60.0</v>
       </c>
       <c r="D13" t="n">
-        <v>67.0</v>
+        <v>72.0</v>
       </c>
       <c r="E13" t="n">
-        <v>127.0</v>
+        <v>132.0</v>
       </c>
       <c r="F13" t="n">
         <v>20.0</v>
@@ -22613,34 +22598,34 @@
         <v>0.9523809523809523</v>
       </c>
       <c r="H13" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.85</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J13" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="K13" t="s">
         <v>70</v>
       </c>
       <c r="L13" t="s">
-        <v>968</v>
+        <v>146</v>
       </c>
       <c r="M13" t="s">
-        <v>715</v>
+        <v>1089</v>
       </c>
       <c r="N13" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="O13" t="n">
         <v>62.0</v>
       </c>
       <c r="P13" t="n">
-        <v>91.0</v>
+        <v>97.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.0</v>
+        <v>159.0</v>
       </c>
       <c r="R13" t="n">
         <v>16.0</v>
@@ -22652,7 +22637,7 @@
         <v>37.0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.85</v>
+        <v>1.7619047619047619</v>
       </c>
       <c r="V13" t="n">
         <v>53.0</v>
@@ -22661,10 +22646,10 @@
         <v>294</v>
       </c>
       <c r="X13" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="Y13" t="s">
-        <v>1408</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -22675,19 +22660,19 @@
         <v>1377</v>
       </c>
       <c r="C14" t="n">
-        <v>53.0</v>
+        <v>58.0</v>
       </c>
       <c r="D14" t="n">
         <v>55.0</v>
       </c>
       <c r="E14" t="n">
-        <v>108.0</v>
+        <v>113.0</v>
       </c>
       <c r="F14" t="n">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.85</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="H14" t="n">
         <v>17.0</v>
@@ -22696,34 +22681,34 @@
         <v>0.8095238095238095</v>
       </c>
       <c r="J14" t="n">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="K14" t="s">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="L14" t="s">
         <v>143</v>
       </c>
       <c r="M14" t="s">
-        <v>308</v>
+        <v>1188</v>
       </c>
       <c r="N14" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="O14" t="n">
-        <v>71.0</v>
+        <v>73.0</v>
       </c>
       <c r="P14" t="n">
         <v>67.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>138.0</v>
+        <v>140.0</v>
       </c>
       <c r="R14" t="n">
         <v>22.0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.1</v>
+        <v>1.0476190476190477</v>
       </c>
       <c r="T14" t="n">
         <v>25.0</v>
@@ -22735,13 +22720,13 @@
         <v>47.0</v>
       </c>
       <c r="W14" t="s">
-        <v>342</v>
+        <v>1311</v>
       </c>
       <c r="X14" t="s">
         <v>324</v>
       </c>
       <c r="Y14" t="s">
-        <v>1409</v>
+        <v>918</v>
       </c>
     </row>
     <row r="15">
@@ -22755,10 +22740,10 @@
         <v>97.0</v>
       </c>
       <c r="D15" t="n">
-        <v>71.0</v>
+        <v>76.0</v>
       </c>
       <c r="E15" t="n">
-        <v>168.0</v>
+        <v>173.0</v>
       </c>
       <c r="F15" t="n">
         <v>33.0</v>
@@ -22767,34 +22752,34 @@
         <v>1.5714285714285714</v>
       </c>
       <c r="H15" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.95</v>
+        <v>1.0</v>
       </c>
       <c r="J15" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="K15" t="s">
         <v>1388</v>
       </c>
       <c r="L15" t="s">
-        <v>1391</v>
+        <v>494</v>
       </c>
       <c r="M15" t="s">
-        <v>332</v>
+        <v>152</v>
       </c>
       <c r="N15" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="O15" t="n">
         <v>60.0</v>
       </c>
       <c r="P15" t="n">
-        <v>52.0</v>
+        <v>57.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>112.0</v>
+        <v>117.0</v>
       </c>
       <c r="R15" t="n">
         <v>12.0</v>
@@ -22803,22 +22788,22 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="T15" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.7</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="V15" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="W15" t="s">
         <v>397</v>
       </c>
       <c r="X15" t="s">
-        <v>291</v>
+        <v>888</v>
       </c>
       <c r="Y15" t="s">
-        <v>712</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="16">
@@ -22829,19 +22814,19 @@
         <v>1379</v>
       </c>
       <c r="C16" t="n">
-        <v>69.0</v>
+        <v>71.0</v>
       </c>
       <c r="D16" t="n">
         <v>79.0</v>
       </c>
       <c r="E16" t="n">
-        <v>148.0</v>
+        <v>150.0</v>
       </c>
       <c r="F16" t="n">
         <v>19.0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.95</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="H16" t="n">
         <v>19.0</v>
@@ -22853,31 +22838,31 @@
         <v>38.0</v>
       </c>
       <c r="K16" t="s">
-        <v>1130</v>
+        <v>1389</v>
       </c>
       <c r="L16" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="M16" t="s">
-        <v>1041</v>
+        <v>1394</v>
       </c>
       <c r="N16" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="O16" t="n">
-        <v>61.0</v>
+        <v>68.0</v>
       </c>
       <c r="P16" t="n">
         <v>67.0</v>
       </c>
       <c r="Q16" t="n">
-        <v>128.0</v>
+        <v>135.0</v>
       </c>
       <c r="R16" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="T16" t="n">
         <v>23.0</v>
@@ -22886,16 +22871,16 @@
         <v>1.0952380952380953</v>
       </c>
       <c r="V16" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="W16" t="s">
-        <v>812</v>
+        <v>319</v>
       </c>
       <c r="X16" t="s">
         <v>536</v>
       </c>
       <c r="Y16" t="s">
-        <v>1225</v>
+        <v>723</v>
       </c>
     </row>
     <row r="17">
@@ -22909,10 +22894,10 @@
         <v>69.0</v>
       </c>
       <c r="D17" t="n">
-        <v>57.0</v>
+        <v>64.0</v>
       </c>
       <c r="E17" t="n">
-        <v>126.0</v>
+        <v>133.0</v>
       </c>
       <c r="F17" t="n">
         <v>26.0</v>
@@ -22921,34 +22906,34 @@
         <v>1.2380952380952381</v>
       </c>
       <c r="H17" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.85</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="J17" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="K17" t="s">
         <v>79</v>
       </c>
       <c r="L17" t="s">
-        <v>1195</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s">
-        <v>666</v>
+        <v>1395</v>
       </c>
       <c r="N17" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="O17" t="n">
         <v>61.0</v>
       </c>
       <c r="P17" t="n">
-        <v>61.0</v>
+        <v>67.0</v>
       </c>
       <c r="Q17" t="n">
-        <v>122.0</v>
+        <v>128.0</v>
       </c>
       <c r="R17" t="n">
         <v>22.0</v>
@@ -22957,22 +22942,22 @@
         <v>1.0476190476190477</v>
       </c>
       <c r="T17" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.1</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="V17" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="W17" t="s">
         <v>877</v>
       </c>
       <c r="X17" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="Y17" t="s">
-        <v>877</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
@@ -22983,19 +22968,19 @@
         <v>1381</v>
       </c>
       <c r="C18" t="n">
-        <v>76.0</v>
+        <v>81.0</v>
       </c>
       <c r="D18" t="n">
         <v>75.0</v>
       </c>
       <c r="E18" t="n">
-        <v>151.0</v>
+        <v>156.0</v>
       </c>
       <c r="F18" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.25</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="H18" t="n">
         <v>18.0</v>
@@ -23004,34 +22989,34 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="J18" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="K18" t="s">
-        <v>343</v>
+        <v>70</v>
       </c>
       <c r="L18" t="s">
         <v>946</v>
       </c>
       <c r="M18" t="s">
-        <v>452</v>
+        <v>727</v>
       </c>
       <c r="N18" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="O18" t="n">
-        <v>75.0</v>
+        <v>80.0</v>
       </c>
       <c r="P18" t="n">
         <v>74.0</v>
       </c>
       <c r="Q18" t="n">
-        <v>149.0</v>
+        <v>154.0</v>
       </c>
       <c r="R18" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="S18" t="n">
-        <v>1.1</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="T18" t="n">
         <v>26.0</v>
@@ -23040,16 +23025,16 @@
         <v>1.2380952380952381</v>
       </c>
       <c r="V18" t="n">
-        <v>48.0</v>
+        <v>50.0</v>
       </c>
       <c r="W18" t="s">
-        <v>505</v>
+        <v>114</v>
       </c>
       <c r="X18" t="s">
         <v>249</v>
       </c>
       <c r="Y18" t="s">
-        <v>1410</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19">
@@ -23063,10 +23048,10 @@
         <v>60.0</v>
       </c>
       <c r="D19" t="n">
-        <v>58.0</v>
+        <v>65.0</v>
       </c>
       <c r="E19" t="n">
-        <v>118.0</v>
+        <v>125.0</v>
       </c>
       <c r="F19" t="n">
         <v>20.0</v>
@@ -23075,34 +23060,34 @@
         <v>0.9523809523809523</v>
       </c>
       <c r="H19" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="J19" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="K19" t="s">
         <v>70</v>
       </c>
       <c r="L19" t="s">
-        <v>735</v>
+        <v>109</v>
       </c>
       <c r="M19" t="s">
-        <v>614</v>
+        <v>333</v>
       </c>
       <c r="N19" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="O19" t="n">
         <v>90.0</v>
       </c>
       <c r="P19" t="n">
-        <v>84.0</v>
+        <v>86.0</v>
       </c>
       <c r="Q19" t="n">
-        <v>174.0</v>
+        <v>176.0</v>
       </c>
       <c r="R19" t="n">
         <v>21.0</v>
@@ -23114,7 +23099,7 @@
         <v>27.0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.35</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="V19" t="n">
         <v>48.0</v>
@@ -23123,10 +23108,10 @@
         <v>1048</v>
       </c>
       <c r="X19" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="Y19" t="s">
-        <v>69</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20">
@@ -23137,19 +23122,19 @@
         <v>1383</v>
       </c>
       <c r="C20" t="n">
-        <v>78.0</v>
+        <v>81.0</v>
       </c>
       <c r="D20" t="n">
         <v>72.0</v>
       </c>
       <c r="E20" t="n">
-        <v>150.0</v>
+        <v>153.0</v>
       </c>
       <c r="F20" t="n">
         <v>22.0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.1</v>
+        <v>1.0476190476190477</v>
       </c>
       <c r="H20" t="n">
         <v>15.0</v>
@@ -23161,31 +23146,31 @@
         <v>37.0</v>
       </c>
       <c r="K20" t="s">
-        <v>428</v>
+        <v>1127</v>
       </c>
       <c r="L20" t="s">
         <v>1192</v>
       </c>
       <c r="M20" t="s">
-        <v>312</v>
+        <v>544</v>
       </c>
       <c r="N20" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="O20" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="P20" t="n">
         <v>86.0</v>
       </c>
       <c r="Q20" t="n">
-        <v>147.0</v>
+        <v>150.0</v>
       </c>
       <c r="R20" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="T20" t="n">
         <v>16.0</v>
@@ -23194,16 +23179,16 @@
         <v>0.7619047619047619</v>
       </c>
       <c r="V20" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="W20" t="s">
-        <v>1399</v>
+        <v>1221</v>
       </c>
       <c r="X20" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="Y20" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="21">
@@ -23214,19 +23199,19 @@
         <v>1384</v>
       </c>
       <c r="C21" t="n">
-        <v>71.0</v>
+        <v>77.0</v>
       </c>
       <c r="D21" t="n">
         <v>58.0</v>
       </c>
       <c r="E21" t="n">
-        <v>129.0</v>
+        <v>135.0</v>
       </c>
       <c r="F21" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.1</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="H21" t="n">
         <v>12.0</v>
@@ -23235,34 +23220,34 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="J21" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="K21" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="L21" t="s">
         <v>711</v>
       </c>
       <c r="M21" t="s">
-        <v>890</v>
+        <v>228</v>
       </c>
       <c r="N21" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="O21" t="n">
-        <v>50.0</v>
+        <v>57.0</v>
       </c>
       <c r="P21" t="n">
         <v>58.0</v>
       </c>
       <c r="Q21" t="n">
-        <v>108.0</v>
+        <v>115.0</v>
       </c>
       <c r="R21" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="T21" t="n">
         <v>22.0</v>
@@ -23271,16 +23256,16 @@
         <v>1.0476190476190477</v>
       </c>
       <c r="V21" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="W21" t="s">
-        <v>946</v>
+        <v>1030</v>
       </c>
       <c r="X21" t="s">
         <v>331</v>
       </c>
       <c r="Y21" t="s">
-        <v>308</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22">
@@ -23291,19 +23276,19 @@
         <v>1385</v>
       </c>
       <c r="C22" t="n">
-        <v>78.0</v>
+        <v>84.0</v>
       </c>
       <c r="D22" t="n">
         <v>84.0</v>
       </c>
       <c r="E22" t="n">
-        <v>162.0</v>
+        <v>168.0</v>
       </c>
       <c r="F22" t="n">
         <v>31.0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.55</v>
+        <v>1.4761904761904763</v>
       </c>
       <c r="H22" t="n">
         <v>21.0</v>
@@ -23315,31 +23300,31 @@
         <v>52.0</v>
       </c>
       <c r="K22" t="s">
-        <v>1389</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s">
         <v>146</v>
       </c>
       <c r="M22" t="s">
-        <v>496</v>
+        <v>332</v>
       </c>
       <c r="N22" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="O22" t="n">
-        <v>68.0</v>
+        <v>73.0</v>
       </c>
       <c r="P22" t="n">
         <v>54.0</v>
       </c>
       <c r="Q22" t="n">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="R22" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.95</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="T22" t="n">
         <v>20.0</v>
@@ -23348,16 +23333,16 @@
         <v>0.9523809523809523</v>
       </c>
       <c r="V22" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="W22" t="s">
-        <v>883</v>
+        <v>425</v>
       </c>
       <c r="X22" t="s">
         <v>657</v>
       </c>
       <c r="Y22" t="s">
-        <v>1412</v>
+        <v>623</v>
       </c>
     </row>
     <row r="23">
@@ -23380,7 +23365,7 @@
         <v>20.0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.0</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="H23" t="n">
         <v>14.0</v>
@@ -23398,25 +23383,25 @@
         <v>1030</v>
       </c>
       <c r="M23" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="N23" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="O23" t="n">
-        <v>69.0</v>
+        <v>78.0</v>
       </c>
       <c r="P23" t="n">
         <v>74.0</v>
       </c>
       <c r="Q23" t="n">
-        <v>143.0</v>
+        <v>152.0</v>
       </c>
       <c r="R23" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="S23" t="n">
-        <v>0.6</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="T23" t="n">
         <v>26.0</v>
@@ -23425,16 +23410,16 @@
         <v>1.2380952380952381</v>
       </c>
       <c r="V23" t="n">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="W23" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="X23" t="s">
         <v>249</v>
       </c>
       <c r="Y23" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
     </row>
   </sheetData>
@@ -23489,7 +23474,7 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
@@ -23530,7 +23515,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="C2" t="n">
         <v>141.0</v>
@@ -23560,10 +23545,10 @@
         <v>385</v>
       </c>
       <c r="L2" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="M2" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="N2" t="n">
         <v>40.0</v>
@@ -23599,7 +23584,7 @@
         <v>565</v>
       </c>
       <c r="Y2" t="s">
-        <v>1467</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="3">
@@ -23607,7 +23592,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="C3" t="n">
         <v>89.0</v>
@@ -23684,7 +23669,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="C4" t="n">
         <v>72.0</v>
@@ -23753,7 +23738,7 @@
         <v>422</v>
       </c>
       <c r="Y4" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="5">
@@ -23761,7 +23746,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="C5" t="n">
         <v>119.0</v>
@@ -23791,7 +23776,7 @@
         <v>289</v>
       </c>
       <c r="L5" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="M5" t="s">
         <v>1338</v>
@@ -23824,7 +23809,7 @@
         <v>44.0</v>
       </c>
       <c r="W5" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="X5" t="s">
         <v>1352</v>
@@ -23838,7 +23823,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="C6" t="n">
         <v>91.0</v>
@@ -23871,7 +23856,7 @@
         <v>71</v>
       </c>
       <c r="M6" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="N6" t="n">
         <v>40.0</v>
@@ -23904,10 +23889,10 @@
         <v>532</v>
       </c>
       <c r="X6" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="Y6" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="7">
@@ -23915,7 +23900,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="C7" t="n">
         <v>76.0</v>
@@ -23948,7 +23933,7 @@
         <v>212</v>
       </c>
       <c r="M7" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="N7" t="n">
         <v>40.0</v>
@@ -23992,7 +23977,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="C8" t="n">
         <v>69.0</v>
@@ -24069,7 +24054,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="C9" t="n">
         <v>120.0</v>
@@ -24099,7 +24084,7 @@
         <v>1124</v>
       </c>
       <c r="L9" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="M9" t="s">
         <v>333</v>
@@ -24135,10 +24120,10 @@
         <v>128</v>
       </c>
       <c r="X9" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="Y9" t="s">
-        <v>1469</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="10">
@@ -24146,7 +24131,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="C10" t="n">
         <v>135.0</v>
@@ -24176,10 +24161,10 @@
         <v>70</v>
       </c>
       <c r="L10" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="M10" t="s">
-        <v>1450</v>
+        <v>1406</v>
       </c>
       <c r="N10" t="n">
         <v>40.0</v>
@@ -24215,7 +24200,7 @@
         <v>398</v>
       </c>
       <c r="Y10" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="11">
@@ -24223,7 +24208,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="C11" t="n">
         <v>94.0</v>
@@ -24250,13 +24235,13 @@
         <v>59.0</v>
       </c>
       <c r="K11" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="L11" t="s">
         <v>660</v>
       </c>
       <c r="M11" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="N11" t="n">
         <v>40.0</v>
@@ -24292,7 +24277,7 @@
         <v>244</v>
       </c>
       <c r="Y11" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="12">
@@ -24300,7 +24285,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="C12" t="n">
         <v>72.0</v>
@@ -24366,7 +24351,7 @@
         <v>243</v>
       </c>
       <c r="X12" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="Y12" t="s">
         <v>719</v>
@@ -24377,7 +24362,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="C13" t="n">
         <v>79.0</v>
@@ -24407,10 +24392,10 @@
         <v>878</v>
       </c>
       <c r="L13" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="M13" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="N13" t="n">
         <v>40.0</v>
@@ -24454,7 +24439,7 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="C14" t="n">
         <v>101.0</v>
@@ -24481,13 +24466,13 @@
         <v>62.0</v>
       </c>
       <c r="K14" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="L14" t="s">
         <v>250</v>
       </c>
       <c r="M14" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="N14" t="n">
         <v>40.0</v>
@@ -24520,10 +24505,10 @@
         <v>1092</v>
       </c>
       <c r="X14" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="Y14" t="s">
-        <v>1472</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="15">
@@ -24531,7 +24516,7 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="C15" t="n">
         <v>93.0</v>
@@ -24564,7 +24549,7 @@
         <v>940</v>
       </c>
       <c r="M15" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="N15" t="n">
         <v>40.0</v>
@@ -24608,7 +24593,7 @@
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C16" t="n">
         <v>99.0</v>
@@ -24635,7 +24620,7 @@
         <v>47.0</v>
       </c>
       <c r="K16" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="L16" t="s">
         <v>493</v>
@@ -24685,7 +24670,7 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="C17" t="n">
         <v>87.0</v>
@@ -24712,13 +24697,13 @@
         <v>35.0</v>
       </c>
       <c r="K17" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="L17" t="s">
         <v>212</v>
       </c>
       <c r="M17" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="N17" t="n">
         <v>40.0</v>
@@ -24754,7 +24739,7 @@
         <v>1203</v>
       </c>
       <c r="Y17" t="s">
-        <v>1473</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="18">
@@ -24762,7 +24747,7 @@
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="C18" t="n">
         <v>98.0</v>
@@ -24789,7 +24774,7 @@
         <v>49.0</v>
       </c>
       <c r="K18" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="L18" t="s">
         <v>345</v>
@@ -24839,7 +24824,7 @@
         <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="C19" t="n">
         <v>94.0</v>
@@ -24869,7 +24854,7 @@
         <v>420</v>
       </c>
       <c r="L19" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="M19" t="s">
         <v>147</v>
@@ -24916,7 +24901,7 @@
         <v>353</v>
       </c>
       <c r="B20" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="C20" t="n">
         <v>87.0</v>
@@ -24949,7 +24934,7 @@
         <v>541</v>
       </c>
       <c r="M20" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="N20" t="n">
         <v>40.0</v>
@@ -24993,7 +24978,7 @@
         <v>354</v>
       </c>
       <c r="B21" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="C21" t="n">
         <v>109.0</v>
@@ -25026,7 +25011,7 @@
         <v>706</v>
       </c>
       <c r="M21" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="N21" t="n">
         <v>40.0</v>
@@ -25056,13 +25041,13 @@
         <v>37.0</v>
       </c>
       <c r="W21" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="X21" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="Y21" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="22">
@@ -25070,7 +25055,7 @@
         <v>457</v>
       </c>
       <c r="B22" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="C22" t="n">
         <v>68.0</v>
@@ -25103,7 +25088,7 @@
         <v>197</v>
       </c>
       <c r="M22" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="N22" t="n">
         <v>40.0</v>
@@ -25136,7 +25121,7 @@
         <v>70</v>
       </c>
       <c r="X22" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="Y22" t="s">
         <v>502</v>
@@ -34163,13 +34148,13 @@
         <v>1.4285714285714286</v>
       </c>
       <c r="H2" t="n">
-        <v>30.0</v>
+        <v>34.0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.4285714285714286</v>
+        <v>1.5454545454545454</v>
       </c>
       <c r="J2" t="n">
-        <v>60.0</v>
+        <v>64.0</v>
       </c>
       <c r="K2" t="s">
         <v>784</v>
@@ -34181,7 +34166,7 @@
         <v>784</v>
       </c>
       <c r="N2" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="O2" t="n">
         <v>0.0</v>
@@ -34199,13 +34184,13 @@
         <v>1.5714285714285714</v>
       </c>
       <c r="T2" t="n">
-        <v>29.0</v>
+        <v>33.0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.380952380952381</v>
+        <v>1.5</v>
       </c>
       <c r="V2" t="n">
-        <v>62.0</v>
+        <v>66.0</v>
       </c>
       <c r="W2" t="s">
         <v>784</v>
@@ -34237,7 +34222,7 @@
         <v>25.0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.25</v>
+        <v>1.1904761904761905</v>
       </c>
       <c r="H3" t="n">
         <v>22.0</v>
@@ -34258,7 +34243,7 @@
         <v>784</v>
       </c>
       <c r="N3" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="O3" t="n">
         <v>0.0</v>
@@ -34273,7 +34258,7 @@
         <v>28.0</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="T3" t="n">
         <v>32.0</v>
@@ -34311,10 +34296,10 @@
         <v>0.0</v>
       </c>
       <c r="F4" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="H4" t="n">
         <v>22.0</v>
@@ -34323,7 +34308,7 @@
         <v>1.0</v>
       </c>
       <c r="J4" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="K4" t="s">
         <v>784</v>
@@ -34335,7 +34320,7 @@
         <v>784</v>
       </c>
       <c r="N4" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="O4" t="n">
         <v>0.0</v>
@@ -34350,7 +34335,7 @@
         <v>39.0</v>
       </c>
       <c r="S4" t="n">
-        <v>1.95</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="T4" t="n">
         <v>52.0</v>
@@ -34388,10 +34373,10 @@
         <v>0.0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.25</v>
+        <v>1.2380952380952381</v>
       </c>
       <c r="H5" t="n">
         <v>27.0</v>
@@ -34400,7 +34385,7 @@
         <v>1.2272727272727273</v>
       </c>
       <c r="J5" t="n">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="K5" t="s">
         <v>784</v>
@@ -34412,7 +34397,7 @@
         <v>784</v>
       </c>
       <c r="N5" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="O5" t="n">
         <v>0.0</v>
@@ -34424,10 +34409,10 @@
         <v>0.0</v>
       </c>
       <c r="R5" t="n">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.2</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="T5" t="n">
         <v>21.0</v>
@@ -34436,7 +34421,7 @@
         <v>0.9545454545454546</v>
       </c>
       <c r="V5" t="n">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="W5" t="s">
         <v>784</v>
@@ -34465,10 +34450,10 @@
         <v>0.0</v>
       </c>
       <c r="F6" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.5714285714285714</v>
+        <v>1.5454545454545454</v>
       </c>
       <c r="H6" t="n">
         <v>33.0</v>
@@ -34477,7 +34462,7 @@
         <v>1.5714285714285714</v>
       </c>
       <c r="J6" t="n">
-        <v>66.0</v>
+        <v>67.0</v>
       </c>
       <c r="K6" t="s">
         <v>784</v>
@@ -34489,7 +34474,7 @@
         <v>784</v>
       </c>
       <c r="N6" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="O6" t="n">
         <v>0.0</v>
@@ -34504,7 +34489,7 @@
         <v>29.0</v>
       </c>
       <c r="S6" t="n">
-        <v>1.380952380952381</v>
+        <v>1.3181818181818181</v>
       </c>
       <c r="T6" t="n">
         <v>25.0</v>
@@ -34548,13 +34533,13 @@
         <v>1.5238095238095237</v>
       </c>
       <c r="H7" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.3</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="J7" t="n">
-        <v>58.0</v>
+        <v>60.0</v>
       </c>
       <c r="K7" t="s">
         <v>784</v>
@@ -34566,7 +34551,7 @@
         <v>784</v>
       </c>
       <c r="N7" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="O7" t="n">
         <v>0.0</v>
@@ -34584,13 +34569,13 @@
         <v>0.9047619047619048</v>
       </c>
       <c r="T7" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="U7" t="n">
-        <v>1.15</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="V7" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="W7" t="s">
         <v>784</v>
@@ -34619,10 +34604,10 @@
         <v>0.0</v>
       </c>
       <c r="F8" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.3</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="H8" t="n">
         <v>27.0</v>
@@ -34631,7 +34616,7 @@
         <v>1.2272727272727273</v>
       </c>
       <c r="J8" t="n">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="K8" t="s">
         <v>784</v>
@@ -34643,7 +34628,7 @@
         <v>784</v>
       </c>
       <c r="N8" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="O8" t="n">
         <v>0.0</v>
@@ -34655,10 +34640,10 @@
         <v>0.0</v>
       </c>
       <c r="R8" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.05</v>
+        <v>1.0476190476190477</v>
       </c>
       <c r="T8" t="n">
         <v>26.0</v>
@@ -34667,7 +34652,7 @@
         <v>1.1818181818181819</v>
       </c>
       <c r="V8" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="W8" t="s">
         <v>784</v>
@@ -34782,7 +34767,7 @@
         <v>26.0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.2380952380952381</v>
+        <v>1.1818181818181819</v>
       </c>
       <c r="J10" t="n">
         <v>51.0</v>
@@ -34797,7 +34782,7 @@
         <v>784</v>
       </c>
       <c r="N10" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="O10" t="n">
         <v>0.0</v>
@@ -34815,13 +34800,13 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="T10" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="U10" t="n">
-        <v>1.380952380952381</v>
+        <v>1.4090909090909092</v>
       </c>
       <c r="V10" t="n">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
       <c r="W10" t="s">
         <v>784</v>
@@ -34850,10 +34835,10 @@
         <v>0.0</v>
       </c>
       <c r="F11" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.6</v>
+        <v>1.5714285714285714</v>
       </c>
       <c r="H11" t="n">
         <v>30.0</v>
@@ -34862,7 +34847,7 @@
         <v>1.4285714285714286</v>
       </c>
       <c r="J11" t="n">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="K11" t="s">
         <v>784</v>
@@ -34874,7 +34859,7 @@
         <v>784</v>
       </c>
       <c r="N11" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="O11" t="n">
         <v>0.0</v>
@@ -34886,10 +34871,10 @@
         <v>0.0</v>
       </c>
       <c r="R11" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.4</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="T11" t="n">
         <v>24.0</v>
@@ -34898,7 +34883,7 @@
         <v>1.1428571428571428</v>
       </c>
       <c r="V11" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="W11" t="s">
         <v>784</v>
@@ -34927,10 +34912,10 @@
         <v>0.0</v>
       </c>
       <c r="F12" t="n">
-        <v>32.0</v>
+        <v>36.0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.6</v>
+        <v>1.7142857142857142</v>
       </c>
       <c r="H12" t="n">
         <v>30.0</v>
@@ -34939,7 +34924,7 @@
         <v>1.4285714285714286</v>
       </c>
       <c r="J12" t="n">
-        <v>62.0</v>
+        <v>66.0</v>
       </c>
       <c r="K12" t="s">
         <v>784</v>
@@ -34951,7 +34936,7 @@
         <v>784</v>
       </c>
       <c r="N12" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="O12" t="n">
         <v>0.0</v>
@@ -34966,7 +34951,7 @@
         <v>19.0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.95</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="T12" t="n">
         <v>24.0</v>
@@ -35004,10 +34989,10 @@
         <v>0.0</v>
       </c>
       <c r="F13" t="n">
-        <v>26.0</v>
+        <v>30.0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.2380952380952381</v>
+        <v>1.3636363636363635</v>
       </c>
       <c r="H13" t="n">
         <v>22.0</v>
@@ -35016,7 +35001,7 @@
         <v>1.0476190476190477</v>
       </c>
       <c r="J13" t="n">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
       <c r="K13" t="s">
         <v>784</v>
@@ -35028,7 +35013,7 @@
         <v>784</v>
       </c>
       <c r="N13" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="O13" t="n">
         <v>0.0</v>
@@ -35040,10 +35025,10 @@
         <v>0.0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.0</v>
+        <v>39.0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.6666666666666667</v>
+        <v>1.7727272727272727</v>
       </c>
       <c r="T13" t="n">
         <v>59.0</v>
@@ -35052,7 +35037,7 @@
         <v>2.8095238095238093</v>
       </c>
       <c r="V13" t="n">
-        <v>94.0</v>
+        <v>98.0</v>
       </c>
       <c r="W13" t="s">
         <v>784</v>
@@ -35087,13 +35072,13 @@
         <v>1.4285714285714286</v>
       </c>
       <c r="H14" t="n">
-        <v>28.0</v>
+        <v>32.0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.4</v>
+        <v>1.5238095238095237</v>
       </c>
       <c r="J14" t="n">
-        <v>58.0</v>
+        <v>62.0</v>
       </c>
       <c r="K14" t="s">
         <v>784</v>
@@ -35105,7 +35090,7 @@
         <v>784</v>
       </c>
       <c r="N14" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="O14" t="n">
         <v>0.0</v>
@@ -35123,13 +35108,13 @@
         <v>1.619047619047619</v>
       </c>
       <c r="T14" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.25</v>
+        <v>1.2380952380952381</v>
       </c>
       <c r="V14" t="n">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="W14" t="s">
         <v>784</v>
@@ -35167,7 +35152,7 @@
         <v>29.0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.380952380952381</v>
+        <v>1.3181818181818181</v>
       </c>
       <c r="J15" t="n">
         <v>62.0</v>
@@ -35182,7 +35167,7 @@
         <v>784</v>
       </c>
       <c r="N15" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="O15" t="n">
         <v>0.0</v>
@@ -35200,13 +35185,13 @@
         <v>0.9523809523809523</v>
       </c>
       <c r="T15" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="U15" t="n">
         <v>1.0</v>
       </c>
       <c r="V15" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="W15" t="s">
         <v>784</v>
@@ -35235,10 +35220,10 @@
         <v>0.0</v>
       </c>
       <c r="F16" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.75</v>
+        <v>1.7619047619047619</v>
       </c>
       <c r="H16" t="n">
         <v>23.0</v>
@@ -35247,7 +35232,7 @@
         <v>1.0454545454545454</v>
       </c>
       <c r="J16" t="n">
-        <v>58.0</v>
+        <v>60.0</v>
       </c>
       <c r="K16" t="s">
         <v>784</v>
@@ -35259,7 +35244,7 @@
         <v>784</v>
       </c>
       <c r="N16" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="O16" t="n">
         <v>0.0</v>
@@ -35274,7 +35259,7 @@
         <v>16.0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="T16" t="n">
         <v>32.0</v>
@@ -35318,13 +35303,13 @@
         <v>1.5454545454545454</v>
       </c>
       <c r="H17" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.85</v>
+        <v>1.8095238095238095</v>
       </c>
       <c r="J17" t="n">
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
       <c r="K17" t="s">
         <v>784</v>
@@ -35336,7 +35321,7 @@
         <v>784</v>
       </c>
       <c r="N17" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="O17" t="n">
         <v>0.0</v>
@@ -35357,7 +35342,7 @@
         <v>16.0</v>
       </c>
       <c r="U17" t="n">
-        <v>0.8</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="V17" t="n">
         <v>32.0</v>
@@ -35398,7 +35383,7 @@
         <v>29.0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.45</v>
+        <v>1.380952380952381</v>
       </c>
       <c r="J18" t="n">
         <v>72.0</v>
@@ -35413,7 +35398,7 @@
         <v>784</v>
       </c>
       <c r="N18" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="O18" t="n">
         <v>0.0</v>
@@ -35431,13 +35416,13 @@
         <v>0.7619047619047619</v>
       </c>
       <c r="T18" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="U18" t="n">
-        <v>0.9</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="V18" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="W18" t="s">
         <v>784</v>
@@ -35475,7 +35460,7 @@
         <v>34.0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.7</v>
+        <v>1.619047619047619</v>
       </c>
       <c r="J19" t="n">
         <v>70.0</v>
@@ -35490,7 +35475,7 @@
         <v>784</v>
       </c>
       <c r="N19" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="O19" t="n">
         <v>0.0</v>
@@ -35511,7 +35496,7 @@
         <v>19.0</v>
       </c>
       <c r="U19" t="n">
-        <v>0.95</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="V19" t="n">
         <v>39.0</v>
@@ -35549,13 +35534,13 @@
         <v>1.5238095238095237</v>
       </c>
       <c r="H20" t="n">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.65</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="J20" t="n">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="K20" t="s">
         <v>784</v>
@@ -35567,7 +35552,7 @@
         <v>784</v>
       </c>
       <c r="N20" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="O20" t="n">
         <v>0.0</v>
@@ -35585,13 +35570,13 @@
         <v>2.4285714285714284</v>
       </c>
       <c r="T20" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.3</v>
+        <v>2.2857142857142856</v>
       </c>
       <c r="V20" t="n">
-        <v>97.0</v>
+        <v>99.0</v>
       </c>
       <c r="W20" t="s">
         <v>784</v>
@@ -35629,7 +35614,7 @@
         <v>20.0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.0</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="J21" t="n">
         <v>45.0</v>
@@ -35644,7 +35629,7 @@
         <v>784</v>
       </c>
       <c r="N21" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="O21" t="n">
         <v>0.0</v>
@@ -35662,13 +35647,13 @@
         <v>1.7142857142857142</v>
       </c>
       <c r="T21" t="n">
-        <v>31.0</v>
+        <v>35.0</v>
       </c>
       <c r="U21" t="n">
-        <v>1.55</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="V21" t="n">
-        <v>67.0</v>
+        <v>71.0</v>
       </c>
       <c r="W21" t="s">
         <v>784</v>
@@ -35697,10 +35682,10 @@
         <v>0.0</v>
       </c>
       <c r="F22" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.25</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="H22" t="n">
         <v>20.0</v>
@@ -35709,7 +35694,7 @@
         <v>0.9090909090909091</v>
       </c>
       <c r="J22" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="K22" t="s">
         <v>784</v>
@@ -35721,7 +35706,7 @@
         <v>784</v>
       </c>
       <c r="N22" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="O22" t="n">
         <v>0.0</v>
@@ -35733,10 +35718,10 @@
         <v>0.0</v>
       </c>
       <c r="R22" t="n">
-        <v>32.0</v>
+        <v>36.0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.6</v>
+        <v>1.7142857142857142</v>
       </c>
       <c r="T22" t="n">
         <v>34.0</v>
@@ -35745,7 +35730,7 @@
         <v>1.5454545454545454</v>
       </c>
       <c r="V22" t="n">
-        <v>66.0</v>
+        <v>70.0</v>
       </c>
       <c r="W22" t="s">
         <v>784</v>
@@ -35780,13 +35765,13 @@
         <v>1.5909090909090908</v>
       </c>
       <c r="H23" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.55</v>
+        <v>1.5238095238095237</v>
       </c>
       <c r="J23" t="n">
-        <v>66.0</v>
+        <v>67.0</v>
       </c>
       <c r="K23" t="s">
         <v>784</v>
@@ -35798,7 +35783,7 @@
         <v>784</v>
       </c>
       <c r="N23" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="O23" t="n">
         <v>0.0</v>
@@ -35816,13 +35801,13 @@
         <v>0.8181818181818182</v>
       </c>
       <c r="T23" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.25</v>
+        <v>1.2380952380952381</v>
       </c>
       <c r="V23" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="W23" t="s">
         <v>784</v>
@@ -35854,7 +35839,7 @@
         <v>34.0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.619047619047619</v>
+        <v>1.5454545454545454</v>
       </c>
       <c r="H24" t="n">
         <v>27.0</v>
@@ -35875,7 +35860,7 @@
         <v>784</v>
       </c>
       <c r="N24" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="O24" t="n">
         <v>0.0</v>
@@ -35887,10 +35872,10 @@
         <v>0.0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="S24" t="n">
-        <v>1.1904761904761905</v>
+        <v>1.1818181818181819</v>
       </c>
       <c r="T24" t="n">
         <v>43.0</v>
@@ -35899,7 +35884,7 @@
         <v>2.0476190476190474</v>
       </c>
       <c r="V24" t="n">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="W24" t="s">
         <v>784</v>

--- a/ShotsAnalysis.xlsx
+++ b/ShotsAnalysis.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3744" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3744" uniqueCount="880">
   <si>
     <t>Group.1</t>
   </si>
@@ -1973,12 +1973,21 @@
     <t>63.64%</t>
   </si>
   <si>
+    <t>34.09%</t>
+  </si>
+  <si>
     <t>44.07%</t>
   </si>
   <si>
     <t>52.27%</t>
   </si>
   <si>
+    <t>36.07%</t>
+  </si>
+  <si>
+    <t>7.69%</t>
+  </si>
+  <si>
     <t>8.33%</t>
   </si>
   <si>
@@ -1988,7 +1997,7 @@
     <t>41.46%</t>
   </si>
   <si>
-    <t>12.00%</t>
+    <t>11.54%</t>
   </si>
   <si>
     <t>43.40%</t>
@@ -2063,204 +2072,195 @@
     <t>Vicenza</t>
   </si>
   <si>
-    <t>55.56%</t>
+    <t>42.00%</t>
+  </si>
+  <si>
+    <t>21.82%</t>
+  </si>
+  <si>
+    <t>38.00%</t>
+  </si>
+  <si>
+    <t>17.50%</t>
+  </si>
+  <si>
+    <t>45.28%</t>
+  </si>
+  <si>
+    <t>n1_games_played</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
+    <t>Cambuur</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>For Sittard</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Heracles</t>
+  </si>
+  <si>
+    <t>Nijmegen</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>Waalwijk</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>50.94%</t>
+  </si>
+  <si>
+    <t>16.13%</t>
+  </si>
+  <si>
+    <t>48.68%</t>
+  </si>
+  <si>
+    <t>43.86%</t>
+  </si>
+  <si>
+    <t>30.14%</t>
+  </si>
+  <si>
+    <t>39.02%</t>
+  </si>
+  <si>
+    <t>32.08%</t>
+  </si>
+  <si>
+    <t>31.67%</t>
+  </si>
+  <si>
+    <t>51.52%</t>
+  </si>
+  <si>
+    <t>33.96%</t>
+  </si>
+  <si>
+    <t>26.83%</t>
+  </si>
+  <si>
+    <t>19.67%</t>
+  </si>
+  <si>
+    <t>p1_games_played</t>
+  </si>
+  <si>
+    <t>Arouca</t>
+  </si>
+  <si>
+    <t>Belenenses</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>Boavista</t>
+  </si>
+  <si>
+    <t>Estoril</t>
+  </si>
+  <si>
+    <t>Famalicao</t>
+  </si>
+  <si>
+    <t>Gil Vicente</t>
+  </si>
+  <si>
+    <t>Guimaraes</t>
+  </si>
+  <si>
+    <t>Maritimo</t>
+  </si>
+  <si>
+    <t>Moreirense</t>
+  </si>
+  <si>
+    <t>Pacos Ferreira</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Sp Braga</t>
+  </si>
+  <si>
+    <t>Sp Lisbon</t>
+  </si>
+  <si>
+    <t>Tondela</t>
+  </si>
+  <si>
+    <t>Vizela</t>
+  </si>
+  <si>
+    <t>25.64%</t>
+  </si>
+  <si>
+    <t>27.50%</t>
+  </si>
+  <si>
+    <t>21.21%</t>
+  </si>
+  <si>
+    <t>62.50%</t>
+  </si>
+  <si>
+    <t>56.25%</t>
   </si>
   <si>
     <t>6.25%</t>
   </si>
   <si>
-    <t>22.00%</t>
+    <t>17.24%</t>
   </si>
   <si>
     <t>40.48%</t>
   </si>
   <si>
-    <t>19.70%</t>
-  </si>
-  <si>
-    <t>7.69%</t>
-  </si>
-  <si>
-    <t>25.53%</t>
-  </si>
-  <si>
-    <t>13.51%</t>
-  </si>
-  <si>
-    <t>46.94%</t>
-  </si>
-  <si>
-    <t>n1_games_played</t>
-  </si>
-  <si>
-    <t>Ajax</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar</t>
-  </si>
-  <si>
-    <t>Cambuur</t>
-  </si>
-  <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
-    <t>For Sittard</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles</t>
-  </si>
-  <si>
-    <t>Groningen</t>
-  </si>
-  <si>
-    <t>Heerenveen</t>
-  </si>
-  <si>
-    <t>Heracles</t>
-  </si>
-  <si>
-    <t>Nijmegen</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam</t>
-  </si>
-  <si>
-    <t>Twente</t>
-  </si>
-  <si>
-    <t>Utrecht</t>
-  </si>
-  <si>
-    <t>Vitesse</t>
-  </si>
-  <si>
-    <t>Waalwijk</t>
-  </si>
-  <si>
-    <t>Willem II</t>
-  </si>
-  <si>
-    <t>Zwolle</t>
-  </si>
-  <si>
-    <t>50.94%</t>
-  </si>
-  <si>
-    <t>16.13%</t>
-  </si>
-  <si>
-    <t>48.68%</t>
-  </si>
-  <si>
-    <t>43.86%</t>
-  </si>
-  <si>
-    <t>30.14%</t>
-  </si>
-  <si>
-    <t>39.02%</t>
-  </si>
-  <si>
-    <t>42.00%</t>
-  </si>
-  <si>
-    <t>32.08%</t>
-  </si>
-  <si>
-    <t>31.67%</t>
-  </si>
-  <si>
-    <t>51.52%</t>
-  </si>
-  <si>
-    <t>33.96%</t>
-  </si>
-  <si>
-    <t>26.83%</t>
-  </si>
-  <si>
-    <t>19.67%</t>
-  </si>
-  <si>
-    <t>p1_games_played</t>
-  </si>
-  <si>
-    <t>Arouca</t>
-  </si>
-  <si>
-    <t>Belenenses</t>
-  </si>
-  <si>
-    <t>Benfica</t>
-  </si>
-  <si>
-    <t>Boavista</t>
-  </si>
-  <si>
-    <t>Estoril</t>
-  </si>
-  <si>
-    <t>Famalicao</t>
-  </si>
-  <si>
-    <t>Gil Vicente</t>
-  </si>
-  <si>
-    <t>Guimaraes</t>
-  </si>
-  <si>
-    <t>Maritimo</t>
-  </si>
-  <si>
-    <t>Moreirense</t>
-  </si>
-  <si>
-    <t>Pacos Ferreira</t>
-  </si>
-  <si>
-    <t>Portimonense</t>
-  </si>
-  <si>
-    <t>Porto</t>
-  </si>
-  <si>
-    <t>Santa Clara</t>
-  </si>
-  <si>
-    <t>Sp Braga</t>
-  </si>
-  <si>
-    <t>Sp Lisbon</t>
-  </si>
-  <si>
-    <t>Tondela</t>
-  </si>
-  <si>
-    <t>Vizela</t>
-  </si>
-  <si>
-    <t>25.64%</t>
-  </si>
-  <si>
-    <t>27.50%</t>
-  </si>
-  <si>
-    <t>21.21%</t>
-  </si>
-  <si>
-    <t>62.50%</t>
-  </si>
-  <si>
-    <t>56.25%</t>
-  </si>
-  <si>
-    <t>17.24%</t>
-  </si>
-  <si>
     <t>sc0_games_played</t>
   </si>
   <si>
@@ -2306,9 +2306,6 @@
     <t>18.60%</t>
   </si>
   <si>
-    <t>34.09%</t>
-  </si>
-  <si>
     <t>10.71%</t>
   </si>
   <si>
@@ -2354,9 +2351,6 @@
     <t>44.23%</t>
   </si>
   <si>
-    <t>17.50%</t>
-  </si>
-  <si>
     <t>sc2_games_played</t>
   </si>
   <si>
@@ -2447,9 +2441,6 @@
     <t>44.19%</t>
   </si>
   <si>
-    <t>21.82%</t>
-  </si>
-  <si>
     <t>20.41%</t>
   </si>
   <si>
@@ -2516,12 +2507,12 @@
     <t>Villarreal</t>
   </si>
   <si>
-    <t>5.88%</t>
-  </si>
-  <si>
     <t>38.24%</t>
   </si>
   <si>
+    <t>22.95%</t>
+  </si>
+  <si>
     <t>sp2_games_played</t>
   </si>
   <si>
@@ -2682,9 +2673,6 @@
   </si>
   <si>
     <t>32.65%</t>
-  </si>
-  <si>
-    <t>36.07%</t>
   </si>
 </sst>
 </file>
@@ -7166,10 +7154,10 @@
         <v>24.0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="E3" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="F3" t="n">
         <v>11.0</v>
@@ -7181,7 +7169,7 @@
         <v>4.0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.0</v>
+        <v>0.8</v>
       </c>
       <c r="J3" t="n">
         <v>15.0</v>
@@ -7190,22 +7178,22 @@
         <v>559</v>
       </c>
       <c r="L3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M3" t="s">
-        <v>310</v>
+        <v>646</v>
       </c>
       <c r="N3" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="O3" t="n">
         <v>22.0</v>
       </c>
       <c r="P3" t="n">
-        <v>23.0</v>
+        <v>29.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>45.0</v>
+        <v>51.0</v>
       </c>
       <c r="R3" t="n">
         <v>8.0</v>
@@ -7214,22 +7202,22 @@
         <v>1.6</v>
       </c>
       <c r="T3" t="n">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="V3" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="W3" t="s">
         <v>125</v>
       </c>
       <c r="X3" t="s">
-        <v>441</v>
+        <v>225</v>
       </c>
       <c r="Y3" t="s">
-        <v>376</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4">
@@ -7306,7 +7294,7 @@
         <v>115</v>
       </c>
       <c r="Y4" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5">
@@ -7578,7 +7566,7 @@
         <v>347</v>
       </c>
       <c r="M8" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N8" t="n">
         <v>10.0</v>
@@ -7768,7 +7756,7 @@
         <v>441</v>
       </c>
       <c r="Y10" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="11">
@@ -7809,7 +7797,7 @@
         <v>350</v>
       </c>
       <c r="M11" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N11" t="n">
         <v>10.0</v>
@@ -7856,19 +7844,19 @@
         <v>635</v>
       </c>
       <c r="C12" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="D12" t="n">
         <v>34.0</v>
       </c>
       <c r="E12" t="n">
-        <v>55.0</v>
+        <v>61.0</v>
       </c>
       <c r="F12" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.75</v>
+        <v>2.0</v>
       </c>
       <c r="H12" t="n">
         <v>12.0</v>
@@ -7877,34 +7865,34 @@
         <v>2.4</v>
       </c>
       <c r="J12" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
+        <v>296</v>
       </c>
       <c r="L12" t="s">
         <v>169</v>
       </c>
       <c r="M12" t="s">
-        <v>438</v>
+        <v>649</v>
       </c>
       <c r="N12" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="O12" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="P12" t="n">
         <v>13.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="R12" t="n">
         <v>1.0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="T12" t="n">
         <v>2.0</v>
@@ -7916,13 +7904,13 @@
         <v>3.0</v>
       </c>
       <c r="W12" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="X12" t="s">
         <v>166</v>
       </c>
       <c r="Y12" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="13">
@@ -7993,7 +7981,7 @@
         <v>10.0</v>
       </c>
       <c r="W13" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="X13" t="s">
         <v>354</v>
@@ -8307,7 +8295,7 @@
         <v>555</v>
       </c>
       <c r="Y17" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="18">
@@ -8538,7 +8526,7 @@
         <v>169</v>
       </c>
       <c r="Y20" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="21">
@@ -8615,7 +8603,7 @@
         <v>301</v>
       </c>
       <c r="Y21" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -8670,7 +8658,7 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
@@ -8711,19 +8699,19 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C2" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="D2" t="n">
         <v>16.0</v>
       </c>
       <c r="E2" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G2" t="n">
         <v>1.0</v>
@@ -8735,34 +8723,34 @@
         <v>1.2</v>
       </c>
       <c r="J2" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L2" t="s">
         <v>76</v>
       </c>
       <c r="M2" t="s">
-        <v>110</v>
+        <v>355</v>
       </c>
       <c r="N2" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="O2" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="P2" t="n">
         <v>27.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>45.0</v>
+        <v>50.0</v>
       </c>
       <c r="R2" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
         <v>12.0</v>
@@ -8771,16 +8759,16 @@
         <v>2.4</v>
       </c>
       <c r="V2" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="W2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s">
         <v>85</v>
       </c>
       <c r="Y2" t="s">
-        <v>89</v>
+        <v>681</v>
       </c>
     </row>
     <row r="3">
@@ -8788,22 +8776,22 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C3" t="n">
-        <v>14.0</v>
+        <v>21.0</v>
       </c>
       <c r="D3" t="n">
         <v>27.0</v>
       </c>
       <c r="E3" t="n">
-        <v>41.0</v>
+        <v>48.0</v>
       </c>
       <c r="F3" t="n">
         <v>4.0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.0</v>
+        <v>0.8</v>
       </c>
       <c r="H3" t="n">
         <v>10.0</v>
@@ -8815,31 +8803,31 @@
         <v>14.0</v>
       </c>
       <c r="K3" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
         <v>296</v>
       </c>
       <c r="M3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="N3" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="O3" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="P3" t="n">
         <v>23.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
       <c r="R3" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="T3" t="n">
         <v>7.0</v>
@@ -8848,16 +8836,16 @@
         <v>1.4</v>
       </c>
       <c r="V3" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="W3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X3" t="s">
         <v>73</v>
       </c>
       <c r="Y3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
@@ -8865,16 +8853,16 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C4" t="n">
         <v>19.0</v>
       </c>
       <c r="D4" t="n">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
       <c r="E4" t="n">
-        <v>35.0</v>
+        <v>40.0</v>
       </c>
       <c r="F4" t="n">
         <v>11.0</v>
@@ -8883,34 +8871,34 @@
         <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.0</v>
+        <v>1.2</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="K4" t="s">
         <v>346</v>
       </c>
       <c r="L4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M4" t="s">
-        <v>123</v>
+        <v>189</v>
       </c>
       <c r="N4" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="O4" t="n">
         <v>25.0</v>
       </c>
       <c r="P4" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="R4" t="n">
         <v>4.0</v>
@@ -8922,7 +8910,7 @@
         <v>3.0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="V4" t="n">
         <v>7.0</v>
@@ -8931,10 +8919,10 @@
         <v>349</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="Y4" t="s">
-        <v>435</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">
@@ -8942,22 +8930,22 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="C5" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="D5" t="n">
         <v>27.0</v>
       </c>
       <c r="E5" t="n">
-        <v>45.0</v>
+        <v>50.0</v>
       </c>
       <c r="F5" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
         <v>10.0</v>
@@ -8966,34 +8954,34 @@
         <v>2.0</v>
       </c>
       <c r="J5" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="K5" t="s">
-        <v>676</v>
+        <v>441</v>
       </c>
       <c r="L5" t="s">
         <v>296</v>
       </c>
       <c r="M5" t="s">
-        <v>85</v>
+        <v>679</v>
       </c>
       <c r="N5" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="O5" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="P5" t="n">
         <v>25.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>39.0</v>
+        <v>44.0</v>
       </c>
       <c r="R5" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="T5" t="n">
         <v>6.0</v>
@@ -9002,16 +8990,16 @@
         <v>1.2</v>
       </c>
       <c r="V5" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="W5" t="s">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="X5" t="s">
         <v>345</v>
       </c>
       <c r="Y5" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
@@ -9019,22 +9007,22 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C6" t="n">
-        <v>28.0</v>
+        <v>32.0</v>
       </c>
       <c r="D6" t="n">
         <v>20.0</v>
       </c>
       <c r="E6" t="n">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
       <c r="F6" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.4</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="H6" t="n">
         <v>2.0</v>
@@ -9043,7 +9031,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K6" t="s">
         <v>106</v>
@@ -9052,25 +9040,25 @@
         <v>158</v>
       </c>
       <c r="M6" t="s">
-        <v>118</v>
+        <v>547</v>
       </c>
       <c r="N6" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="O6" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="P6" t="n">
         <v>14.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8</v>
+        <v>1.0</v>
       </c>
       <c r="T6" t="n">
         <v>7.0</v>
@@ -9079,16 +9067,16 @@
         <v>1.75</v>
       </c>
       <c r="V6" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="W6" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="X6" t="s">
         <v>105</v>
       </c>
       <c r="Y6" t="s">
-        <v>350</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7">
@@ -9096,22 +9084,22 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C7" t="n">
-        <v>20.0</v>
+        <v>24.0</v>
       </c>
       <c r="D7" t="n">
         <v>22.0</v>
       </c>
       <c r="E7" t="n">
-        <v>42.0</v>
+        <v>46.0</v>
       </c>
       <c r="F7" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="H7" t="n">
         <v>8.0</v>
@@ -9120,34 +9108,34 @@
         <v>1.6</v>
       </c>
       <c r="J7" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K7" t="s">
-        <v>482</v>
+        <v>161</v>
       </c>
       <c r="L7" t="s">
         <v>125</v>
       </c>
       <c r="M7" t="s">
-        <v>260</v>
+        <v>124</v>
       </c>
       <c r="N7" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="O7" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="P7" t="n">
         <v>33.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>47.0</v>
+        <v>50.0</v>
       </c>
       <c r="R7" t="n">
         <v>4.0</v>
       </c>
       <c r="S7" t="n">
-        <v>1.0</v>
+        <v>0.8</v>
       </c>
       <c r="T7" t="n">
         <v>8.0</v>
@@ -9159,13 +9147,13 @@
         <v>12.0</v>
       </c>
       <c r="W7" t="s">
-        <v>110</v>
+        <v>289</v>
       </c>
       <c r="X7" t="s">
         <v>120</v>
       </c>
       <c r="Y7" t="s">
-        <v>682</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8">
@@ -9173,7 +9161,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C8" t="n">
         <v>25.0</v>
@@ -9250,22 +9238,22 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C9" t="n">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="D9" t="n">
         <v>12.0</v>
       </c>
       <c r="E9" t="n">
-        <v>28.0</v>
+        <v>32.0</v>
       </c>
       <c r="F9" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H9" t="n">
         <v>3.0</v>
@@ -9274,34 +9262,34 @@
         <v>0.75</v>
       </c>
       <c r="J9" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="L9" t="s">
         <v>106</v>
       </c>
       <c r="M9" t="s">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="N9" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="O9" t="n">
-        <v>24.0</v>
+        <v>30.0</v>
       </c>
       <c r="P9" t="n">
         <v>6.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>30.0</v>
+        <v>36.0</v>
       </c>
       <c r="R9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="T9" t="n">
         <v>3.0</v>
@@ -9310,7 +9298,7 @@
         <v>0.75</v>
       </c>
       <c r="V9" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="W9" t="s">
         <v>161</v>
@@ -9319,7 +9307,7 @@
         <v>105</v>
       </c>
       <c r="Y9" t="s">
-        <v>352</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
@@ -9327,22 +9315,22 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="C10" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="D10" t="n">
         <v>14.0</v>
       </c>
       <c r="E10" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="F10" t="n">
         <v>7.0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.4</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="H10" t="n">
         <v>4.0</v>
@@ -9354,31 +9342,31 @@
         <v>11.0</v>
       </c>
       <c r="K10" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="L10" t="s">
         <v>110</v>
       </c>
       <c r="M10" t="s">
-        <v>302</v>
+        <v>222</v>
       </c>
       <c r="N10" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="O10" t="n">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
       <c r="P10" t="n">
         <v>27.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>48.0</v>
+        <v>53.0</v>
       </c>
       <c r="R10" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="S10" t="n">
-        <v>1.8</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="T10" t="n">
         <v>8.0</v>
@@ -9387,16 +9375,16 @@
         <v>2.0</v>
       </c>
       <c r="V10" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="W10" t="s">
-        <v>123</v>
+        <v>350</v>
       </c>
       <c r="X10" t="s">
         <v>243</v>
       </c>
       <c r="Y10" t="s">
-        <v>475</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
@@ -9404,16 +9392,16 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="C11" t="n">
         <v>28.0</v>
       </c>
       <c r="D11" t="n">
-        <v>22.0</v>
+        <v>27.0</v>
       </c>
       <c r="E11" t="n">
-        <v>50.0</v>
+        <v>55.0</v>
       </c>
       <c r="F11" t="n">
         <v>6.0</v>
@@ -9422,34 +9410,34 @@
         <v>1.2</v>
       </c>
       <c r="H11" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="J11" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K11" t="s">
         <v>168</v>
       </c>
       <c r="L11" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="M11" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="N11" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="O11" t="n">
         <v>16.0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="R11" t="n">
         <v>6.0</v>
@@ -9458,22 +9446,22 @@
         <v>1.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U11" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="V11" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="W11" t="s">
         <v>76</v>
       </c>
       <c r="X11" t="s">
-        <v>681</v>
+        <v>188</v>
       </c>
       <c r="Y11" t="s">
-        <v>240</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12">
@@ -9481,16 +9469,16 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C12" t="n">
         <v>20.0</v>
       </c>
       <c r="D12" t="n">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="E12" t="n">
-        <v>45.0</v>
+        <v>50.0</v>
       </c>
       <c r="F12" t="n">
         <v>7.0</v>
@@ -9499,34 +9487,34 @@
         <v>1.75</v>
       </c>
       <c r="H12" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.2</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="J12" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="K12" t="s">
         <v>98</v>
       </c>
       <c r="L12" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="M12" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="N12" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="O12" t="n">
         <v>8.0</v>
       </c>
       <c r="P12" t="n">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>24.0</v>
+        <v>29.0</v>
       </c>
       <c r="R12" t="n">
         <v>3.0</v>
@@ -9535,22 +9523,22 @@
         <v>0.75</v>
       </c>
       <c r="T12" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="U12" t="n">
         <v>1.0</v>
       </c>
       <c r="V12" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="W12" t="s">
         <v>76</v>
       </c>
       <c r="X12" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="Y12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -9558,7 +9546,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C13" t="n">
         <v>13.0</v>
@@ -9635,16 +9623,16 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C14" t="n">
         <v>17.0</v>
       </c>
       <c r="D14" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="E14" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F14" t="n">
         <v>3.0</v>
@@ -9653,34 +9641,34 @@
         <v>0.75</v>
       </c>
       <c r="H14" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="I14" t="n">
         <v>2.0</v>
       </c>
       <c r="J14" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="K14" t="s">
         <v>196</v>
       </c>
       <c r="L14" t="s">
-        <v>676</v>
+        <v>619</v>
       </c>
       <c r="M14" t="s">
-        <v>353</v>
+        <v>194</v>
       </c>
       <c r="N14" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="O14" t="n">
         <v>16.0</v>
       </c>
       <c r="P14" t="n">
-        <v>32.0</v>
+        <v>36.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
       <c r="R14" t="n">
         <v>3.0</v>
@@ -9689,19 +9677,19 @@
         <v>0.75</v>
       </c>
       <c r="T14" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.8</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="V14" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="W14" t="s">
         <v>118</v>
       </c>
       <c r="X14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y14" t="s">
         <v>106</v>
@@ -9712,22 +9700,22 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C15" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="D15" t="n">
         <v>14.0</v>
       </c>
       <c r="E15" t="n">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="F15" t="n">
         <v>5.0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.25</v>
+        <v>1.0</v>
       </c>
       <c r="H15" t="n">
         <v>4.0</v>
@@ -9739,31 +9727,31 @@
         <v>9.0</v>
       </c>
       <c r="K15" t="s">
-        <v>97</v>
+        <v>290</v>
       </c>
       <c r="L15" t="s">
         <v>110</v>
       </c>
       <c r="M15" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N15" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="O15" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="P15" t="n">
         <v>18.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>37.0</v>
+        <v>40.0</v>
       </c>
       <c r="R15" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="S15" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="T15" t="n">
         <v>0.0</v>
@@ -9772,16 +9760,16 @@
         <v>0.0</v>
       </c>
       <c r="V15" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="W15" t="s">
-        <v>290</v>
+        <v>96</v>
       </c>
       <c r="X15" t="s">
         <v>291</v>
       </c>
       <c r="Y15" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="16">
@@ -9789,16 +9777,16 @@
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C16" t="n">
         <v>20.0</v>
       </c>
       <c r="D16" t="n">
-        <v>22.0</v>
+        <v>28.0</v>
       </c>
       <c r="E16" t="n">
-        <v>42.0</v>
+        <v>48.0</v>
       </c>
       <c r="F16" t="n">
         <v>8.0</v>
@@ -9807,34 +9795,34 @@
         <v>1.6</v>
       </c>
       <c r="H16" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="I16" t="n">
-        <v>2.25</v>
+        <v>2.0</v>
       </c>
       <c r="J16" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="K16" t="s">
         <v>89</v>
       </c>
       <c r="L16" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="M16" t="s">
-        <v>679</v>
+        <v>76</v>
       </c>
       <c r="N16" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="O16" t="n">
         <v>16.0</v>
       </c>
       <c r="P16" t="n">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="Q16" t="n">
-        <v>35.0</v>
+        <v>39.0</v>
       </c>
       <c r="R16" t="n">
         <v>2.0</v>
@@ -9843,22 +9831,22 @@
         <v>0.4</v>
       </c>
       <c r="T16" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="V16" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="W16" t="s">
         <v>622</v>
       </c>
       <c r="X16" t="s">
-        <v>290</v>
+        <v>124</v>
       </c>
       <c r="Y16" t="s">
-        <v>107</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17">
@@ -9866,16 +9854,16 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C17" t="n">
         <v>15.0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="E17" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="F17" t="n">
         <v>4.0</v>
@@ -9887,7 +9875,7 @@
         <v>2.0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J17" t="n">
         <v>6.0</v>
@@ -9896,22 +9884,22 @@
         <v>170</v>
       </c>
       <c r="L17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M17" t="s">
-        <v>71</v>
+        <v>345</v>
       </c>
       <c r="N17" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="O17" t="n">
         <v>26.0</v>
       </c>
       <c r="P17" t="n">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
       <c r="Q17" t="n">
-        <v>49.0</v>
+        <v>53.0</v>
       </c>
       <c r="R17" t="n">
         <v>13.0</v>
@@ -9920,22 +9908,22 @@
         <v>2.6</v>
       </c>
       <c r="T17" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="V17" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="W17" t="s">
         <v>105</v>
       </c>
       <c r="X17" t="s">
-        <v>238</v>
+        <v>115</v>
       </c>
       <c r="Y17" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="18">
@@ -9943,16 +9931,16 @@
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C18" t="n">
         <v>29.0</v>
       </c>
       <c r="D18" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="E18" t="n">
-        <v>37.0</v>
+        <v>40.0</v>
       </c>
       <c r="F18" t="n">
         <v>7.0</v>
@@ -9961,34 +9949,34 @@
         <v>1.4</v>
       </c>
       <c r="H18" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.75</v>
+        <v>1.0</v>
       </c>
       <c r="J18" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="K18" t="s">
         <v>240</v>
       </c>
       <c r="L18" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="N18" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="O18" t="n">
         <v>15.0</v>
       </c>
       <c r="P18" t="n">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="R18" t="n">
         <v>4.0</v>
@@ -10000,7 +9988,7 @@
         <v>4.0</v>
       </c>
       <c r="U18" t="n">
-        <v>1.0</v>
+        <v>0.8</v>
       </c>
       <c r="V18" t="n">
         <v>8.0</v>
@@ -10009,10 +9997,10 @@
         <v>170</v>
       </c>
       <c r="X18" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="Y18" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
@@ -10020,16 +10008,16 @@
         <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C19" t="n">
         <v>50.0</v>
       </c>
       <c r="D19" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="E19" t="n">
-        <v>66.0</v>
+        <v>68.0</v>
       </c>
       <c r="F19" t="n">
         <v>12.0</v>
@@ -10038,34 +10026,34 @@
         <v>2.4</v>
       </c>
       <c r="H19" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="J19" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="K19" t="s">
         <v>345</v>
       </c>
       <c r="L19" t="s">
-        <v>677</v>
+        <v>288</v>
       </c>
       <c r="M19" t="s">
-        <v>680</v>
+        <v>597</v>
       </c>
       <c r="N19" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="O19" t="n">
         <v>17.0</v>
       </c>
       <c r="P19" t="n">
-        <v>16.0</v>
+        <v>23.0</v>
       </c>
       <c r="Q19" t="n">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
       <c r="R19" t="n">
         <v>6.0</v>
@@ -10077,7 +10065,7 @@
         <v>4.0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.0</v>
+        <v>0.8</v>
       </c>
       <c r="V19" t="n">
         <v>10.0</v>
@@ -10086,10 +10074,10 @@
         <v>169</v>
       </c>
       <c r="X19" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y19" t="s">
         <v>106</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="20">
@@ -10097,7 +10085,7 @@
         <v>263</v>
       </c>
       <c r="B20" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="C20" t="n">
         <v>26.0</v>
@@ -10174,7 +10162,7 @@
         <v>264</v>
       </c>
       <c r="B21" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C21" t="n">
         <v>13.0</v>
@@ -10298,7 +10286,7 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
@@ -10339,7 +10327,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C2" t="n">
         <v>53.0</v>
@@ -10366,13 +10354,13 @@
         <v>37.0</v>
       </c>
       <c r="K2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="L2" t="s">
         <v>238</v>
       </c>
       <c r="M2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N2" t="n">
         <v>10.0</v>
@@ -10408,7 +10396,7 @@
         <v>308</v>
       </c>
       <c r="Y2" t="s">
-        <v>681</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3">
@@ -10416,7 +10404,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C3" t="n">
         <v>23.0</v>
@@ -10493,7 +10481,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C4" t="n">
         <v>30.0</v>
@@ -10570,7 +10558,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -10603,7 +10591,7 @@
         <v>620</v>
       </c>
       <c r="M5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N5" t="n">
         <v>9.0</v>
@@ -10647,7 +10635,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C6" t="n">
         <v>16.0</v>
@@ -10716,7 +10704,7 @@
         <v>375</v>
       </c>
       <c r="Y6" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="7">
@@ -10724,7 +10712,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C7" t="n">
         <v>26.0</v>
@@ -10793,7 +10781,7 @@
         <v>417</v>
       </c>
       <c r="Y7" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="8">
@@ -10801,7 +10789,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C8" t="n">
         <v>16.0</v>
@@ -10878,7 +10866,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C9" t="n">
         <v>22.0</v>
@@ -10955,7 +10943,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C10" t="n">
         <v>29.0</v>
@@ -11032,7 +11020,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C11" t="n">
         <v>17.0</v>
@@ -11109,7 +11097,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C12" t="n">
         <v>41.0</v>
@@ -11142,7 +11130,7 @@
         <v>106</v>
       </c>
       <c r="M12" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="N12" t="n">
         <v>10.0</v>
@@ -11178,7 +11166,7 @@
         <v>85</v>
       </c>
       <c r="Y12" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="13">
@@ -11186,7 +11174,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C13" t="n">
         <v>22.0</v>
@@ -11255,7 +11243,7 @@
         <v>110</v>
       </c>
       <c r="Y13" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="14">
@@ -11263,7 +11251,7 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C14" t="n">
         <v>23.0</v>
@@ -11296,7 +11284,7 @@
         <v>105</v>
       </c>
       <c r="M14" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="N14" t="n">
         <v>10.0</v>
@@ -11340,7 +11328,7 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C15" t="n">
         <v>38.0</v>
@@ -11373,7 +11361,7 @@
         <v>91</v>
       </c>
       <c r="M15" t="s">
-        <v>710</v>
+        <v>679</v>
       </c>
       <c r="N15" t="n">
         <v>10.0</v>
@@ -11409,7 +11397,7 @@
         <v>106</v>
       </c>
       <c r="Y15" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="16">
@@ -11417,7 +11405,7 @@
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C16" t="n">
         <v>31.0</v>
@@ -11444,7 +11432,7 @@
         <v>10.0</v>
       </c>
       <c r="K16" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="L16" t="s">
         <v>106</v>
@@ -11494,7 +11482,7 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C17" t="n">
         <v>17.0</v>
@@ -11571,7 +11559,7 @@
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C18" t="n">
         <v>17.0</v>
@@ -11640,7 +11628,7 @@
         <v>351</v>
       </c>
       <c r="Y18" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="19">
@@ -11648,7 +11636,7 @@
         <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C19" t="n">
         <v>16.0</v>
@@ -11772,7 +11760,7 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
@@ -11813,7 +11801,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C2" t="n">
         <v>19.0</v>
@@ -11882,7 +11870,7 @@
         <v>105</v>
       </c>
       <c r="Y2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="3">
@@ -11890,7 +11878,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -11967,7 +11955,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C4" t="n">
         <v>26.0</v>
@@ -12036,7 +12024,7 @@
         <v>163</v>
       </c>
       <c r="Y4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="5">
@@ -12044,7 +12032,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C5" t="n">
         <v>19.0</v>
@@ -12121,7 +12109,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C6" t="n">
         <v>11.0</v>
@@ -12190,7 +12178,7 @@
         <v>118</v>
       </c>
       <c r="Y6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="7">
@@ -12198,7 +12186,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C7" t="n">
         <v>12.0</v>
@@ -12231,7 +12219,7 @@
         <v>75</v>
       </c>
       <c r="M7" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="N7" t="n">
         <v>9.0</v>
@@ -12264,7 +12252,7 @@
         <v>129</v>
       </c>
       <c r="X7" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="Y7" t="s">
         <v>255</v>
@@ -12275,7 +12263,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C8" t="n">
         <v>25.0</v>
@@ -12352,7 +12340,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C9" t="n">
         <v>27.0</v>
@@ -12385,7 +12373,7 @@
         <v>63</v>
       </c>
       <c r="M9" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="N9" t="n">
         <v>9.0</v>
@@ -12429,7 +12417,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C10" t="n">
         <v>7.0</v>
@@ -12506,7 +12494,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C11" t="n">
         <v>14.0</v>
@@ -12572,10 +12560,10 @@
         <v>63</v>
       </c>
       <c r="X11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="Y11" t="s">
-        <v>679</v>
+        <v>741</v>
       </c>
     </row>
     <row r="12">
@@ -12583,7 +12571,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C12" t="n">
         <v>13.0</v>
@@ -12660,7 +12648,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C13" t="n">
         <v>21.0</v>
@@ -12726,7 +12714,7 @@
         <v>91</v>
       </c>
       <c r="X13" t="s">
-        <v>677</v>
+        <v>739</v>
       </c>
       <c r="Y13" t="s">
         <v>168</v>
@@ -12737,7 +12725,7 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C14" t="n">
         <v>26.0</v>
@@ -12770,7 +12758,7 @@
         <v>76</v>
       </c>
       <c r="M14" t="s">
-        <v>710</v>
+        <v>679</v>
       </c>
       <c r="N14" t="n">
         <v>9.0</v>
@@ -12814,7 +12802,7 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C15" t="n">
         <v>16.0</v>
@@ -12891,7 +12879,7 @@
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C16" t="n">
         <v>27.0</v>
@@ -12954,7 +12942,7 @@
         <v>8.0</v>
       </c>
       <c r="W16" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="X16" t="s">
         <v>161</v>
@@ -12968,7 +12956,7 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C17" t="n">
         <v>28.0</v>
@@ -13045,7 +13033,7 @@
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C18" t="n">
         <v>19.0</v>
@@ -13122,7 +13110,7 @@
         <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -13155,7 +13143,7 @@
         <v>306</v>
       </c>
       <c r="M19" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="N19" t="n">
         <v>9.0</v>
@@ -13353,7 +13341,7 @@
         <v>85</v>
       </c>
       <c r="X2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="Y2" t="s">
         <v>555</v>
@@ -13658,7 +13646,7 @@
         <v>8.0</v>
       </c>
       <c r="W6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="X6" t="s">
         <v>589</v>
@@ -13705,7 +13693,7 @@
         <v>66</v>
       </c>
       <c r="M7" t="s">
-        <v>757</v>
+        <v>646</v>
       </c>
       <c r="N7" t="n">
         <v>11.0</v>
@@ -14013,7 +14001,7 @@
         <v>117</v>
       </c>
       <c r="M11" t="s">
-        <v>757</v>
+        <v>646</v>
       </c>
       <c r="N11" t="n">
         <v>11.0</v>
@@ -14043,7 +14031,7 @@
         <v>22.0</v>
       </c>
       <c r="W11" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="X11" t="s">
         <v>61</v>
@@ -14087,7 +14075,7 @@
         <v>67</v>
       </c>
       <c r="L12" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="M12" t="s">
         <v>352</v>
@@ -14258,7 +14246,7 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
@@ -14299,7 +14287,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C2" t="n">
         <v>28.0</v>
@@ -14376,7 +14364,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C3" t="n">
         <v>20.0</v>
@@ -14453,7 +14441,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C4" t="n">
         <v>19.0</v>
@@ -14530,7 +14518,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C5" t="n">
         <v>21.0</v>
@@ -14607,7 +14595,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C6" t="n">
         <v>28.0</v>
@@ -14684,7 +14672,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C7" t="n">
         <v>21.0</v>
@@ -14753,7 +14741,7 @@
         <v>158</v>
       </c>
       <c r="Y7" t="s">
-        <v>773</v>
+        <v>682</v>
       </c>
     </row>
     <row r="8">
@@ -14761,7 +14749,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C8" t="n">
         <v>17.0</v>
@@ -14791,10 +14779,10 @@
         <v>169</v>
       </c>
       <c r="L8" t="s">
-        <v>677</v>
+        <v>739</v>
       </c>
       <c r="M8" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="N8" t="n">
         <v>11.0</v>
@@ -14838,7 +14826,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C9" t="n">
         <v>26.0</v>
@@ -14871,7 +14859,7 @@
         <v>105</v>
       </c>
       <c r="M9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="N9" t="n">
         <v>11.0</v>
@@ -14915,7 +14903,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C10" t="n">
         <v>18.0</v>
@@ -14992,7 +14980,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C11" t="n">
         <v>25.0</v>
@@ -15116,7 +15104,7 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
@@ -15157,7 +15145,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C2" t="n">
         <v>39.0</v>
@@ -15184,13 +15172,13 @@
         <v>19.0</v>
       </c>
       <c r="K2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="L2" t="s">
         <v>110</v>
       </c>
       <c r="M2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="N2" t="n">
         <v>11.0</v>
@@ -15234,7 +15222,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C3" t="n">
         <v>20.0</v>
@@ -15267,7 +15255,7 @@
         <v>123</v>
       </c>
       <c r="M3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="N3" t="n">
         <v>11.0</v>
@@ -15311,7 +15299,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -15388,7 +15376,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C5" t="n">
         <v>29.0</v>
@@ -15465,7 +15453,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C6" t="n">
         <v>17.0</v>
@@ -15542,7 +15530,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C7" t="n">
         <v>20.0</v>
@@ -15608,10 +15596,10 @@
         <v>223</v>
       </c>
       <c r="X7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="Y7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="8">
@@ -15619,7 +15607,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C8" t="n">
         <v>26.0</v>
@@ -15696,7 +15684,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C9" t="n">
         <v>35.0</v>
@@ -15765,7 +15753,7 @@
         <v>622</v>
       </c>
       <c r="Y9" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="10">
@@ -15773,7 +15761,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C10" t="n">
         <v>31.0</v>
@@ -15850,7 +15838,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C11" t="n">
         <v>40.0</v>
@@ -15974,7 +15962,7 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
@@ -16015,7 +16003,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C2" t="n">
         <v>27.0</v>
@@ -16092,7 +16080,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C3" t="n">
         <v>28.0</v>
@@ -16125,7 +16113,7 @@
         <v>89</v>
       </c>
       <c r="M3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="N3" t="n">
         <v>10.0</v>
@@ -16161,7 +16149,7 @@
         <v>172</v>
       </c>
       <c r="Y3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4">
@@ -16169,7 +16157,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C4" t="n">
         <v>16.0</v>
@@ -16238,7 +16226,7 @@
         <v>238</v>
       </c>
       <c r="Y4" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="5">
@@ -16246,7 +16234,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C5" t="n">
         <v>17.0</v>
@@ -16315,7 +16303,7 @@
         <v>168</v>
       </c>
       <c r="Y5" t="s">
-        <v>804</v>
+        <v>680</v>
       </c>
     </row>
     <row r="6">
@@ -16323,7 +16311,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C6" t="n">
         <v>21.0</v>
@@ -16400,7 +16388,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C7" t="n">
         <v>21.0</v>
@@ -16477,7 +16465,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C8" t="n">
         <v>29.0</v>
@@ -16510,7 +16498,7 @@
         <v>129</v>
       </c>
       <c r="M8" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="N8" t="n">
         <v>10.0</v>
@@ -16554,7 +16542,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C9" t="n">
         <v>19.0</v>
@@ -16623,7 +16611,7 @@
         <v>106</v>
       </c>
       <c r="Y9" t="s">
-        <v>757</v>
+        <v>646</v>
       </c>
     </row>
     <row r="10">
@@ -16631,7 +16619,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C10" t="n">
         <v>21.0</v>
@@ -16700,7 +16688,7 @@
         <v>179</v>
       </c>
       <c r="Y10" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="11">
@@ -16708,7 +16696,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C11" t="n">
         <v>24.0</v>
@@ -18306,7 +18294,7 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
@@ -18347,7 +18335,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C2" t="n">
         <v>19.0</v>
@@ -18424,7 +18412,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C3" t="n">
         <v>25.0</v>
@@ -18501,16 +18489,16 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C4" t="n">
         <v>18.0</v>
       </c>
       <c r="D4" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="E4" t="n">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="F4" t="n">
         <v>7.0</v>
@@ -18519,34 +18507,34 @@
         <v>1.4</v>
       </c>
       <c r="H4" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J4" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="K4" t="s">
         <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>105</v>
+        <v>285</v>
       </c>
       <c r="M4" t="s">
-        <v>590</v>
+        <v>184</v>
       </c>
       <c r="N4" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="O4" t="n">
         <v>10.0</v>
       </c>
       <c r="P4" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="R4" t="n">
         <v>4.0</v>
@@ -18555,22 +18543,22 @@
         <v>0.8</v>
       </c>
       <c r="T4" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.0</v>
+        <v>1.2</v>
       </c>
       <c r="V4" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="W4" t="s">
         <v>89</v>
       </c>
       <c r="X4" t="s">
-        <v>105</v>
+        <v>554</v>
       </c>
       <c r="Y4" t="s">
-        <v>85</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5">
@@ -18578,7 +18566,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C5" t="n">
         <v>36.0</v>
@@ -18611,7 +18599,7 @@
         <v>622</v>
       </c>
       <c r="M5" t="s">
-        <v>757</v>
+        <v>646</v>
       </c>
       <c r="N5" t="n">
         <v>10.0</v>
@@ -18655,7 +18643,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C6" t="n">
         <v>41.0</v>
@@ -18688,7 +18676,7 @@
         <v>218</v>
       </c>
       <c r="M6" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="N6" t="n">
         <v>11.0</v>
@@ -18732,7 +18720,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C7" t="n">
         <v>14.0</v>
@@ -18809,22 +18797,22 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C8" t="n">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="D8" t="n">
         <v>15.0</v>
       </c>
       <c r="E8" t="n">
-        <v>29.0</v>
+        <v>35.0</v>
       </c>
       <c r="F8" t="n">
         <v>3.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="n">
         <v>7.0</v>
@@ -18836,31 +18824,31 @@
         <v>10.0</v>
       </c>
       <c r="K8" t="s">
-        <v>168</v>
+        <v>482</v>
       </c>
       <c r="L8" t="s">
         <v>255</v>
       </c>
       <c r="M8" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="N8" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="P8" t="n">
         <v>27.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>42.0</v>
+        <v>46.0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.2</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="T8" t="n">
         <v>6.0</v>
@@ -18869,16 +18857,16 @@
         <v>1.2</v>
       </c>
       <c r="V8" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="W8" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="X8" t="s">
         <v>111</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
@@ -18886,7 +18874,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C9" t="n">
         <v>20.0</v>
@@ -18963,7 +18951,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C10" t="n">
         <v>21.0</v>
@@ -18996,7 +18984,7 @@
         <v>113</v>
       </c>
       <c r="M10" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="N10" t="n">
         <v>11.0</v>
@@ -19040,16 +19028,16 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C11" t="n">
         <v>7.0</v>
       </c>
       <c r="D11" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="E11" t="n">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
       <c r="F11" t="n">
         <v>2.0</v>
@@ -19058,34 +19046,34 @@
         <v>0.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J11" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K11" t="s">
         <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>827</v>
+        <v>187</v>
       </c>
       <c r="M11" t="s">
-        <v>622</v>
+        <v>188</v>
       </c>
       <c r="N11" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="O11" t="n">
         <v>23.0</v>
       </c>
       <c r="P11" t="n">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="R11" t="n">
         <v>8.0</v>
@@ -19094,22 +19082,22 @@
         <v>1.6</v>
       </c>
       <c r="T11" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="V11" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="W11" t="s">
         <v>121</v>
       </c>
       <c r="X11" t="s">
-        <v>354</v>
+        <v>165</v>
       </c>
       <c r="Y11" t="s">
-        <v>89</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12">
@@ -19117,22 +19105,22 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C12" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="D12" t="n">
         <v>14.0</v>
       </c>
       <c r="E12" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="F12" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="H12" t="n">
         <v>2.0</v>
@@ -19141,10 +19129,10 @@
         <v>0.4</v>
       </c>
       <c r="J12" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="K12" t="s">
-        <v>164</v>
+        <v>619</v>
       </c>
       <c r="L12" t="s">
         <v>188</v>
@@ -19153,22 +19141,22 @@
         <v>67</v>
       </c>
       <c r="N12" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="O12" t="n">
-        <v>30.0</v>
+        <v>34.0</v>
       </c>
       <c r="P12" t="n">
         <v>27.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.0</v>
+        <v>61.0</v>
       </c>
       <c r="R12" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="S12" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="T12" t="n">
         <v>7.0</v>
@@ -19177,16 +19165,16 @@
         <v>1.4</v>
       </c>
       <c r="V12" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="W12" t="s">
-        <v>107</v>
+        <v>597</v>
       </c>
       <c r="X12" t="s">
         <v>75</v>
       </c>
       <c r="Y12" t="s">
-        <v>593</v>
+        <v>825</v>
       </c>
     </row>
     <row r="13">
@@ -19194,22 +19182,22 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C13" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="D13" t="n">
         <v>20.0</v>
       </c>
       <c r="E13" t="n">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.0</v>
+        <v>1.2</v>
       </c>
       <c r="H13" t="n">
         <v>5.0</v>
@@ -19218,34 +19206,34 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="J13" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="K13" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="L13" t="s">
         <v>106</v>
       </c>
       <c r="M13" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="N13" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="O13" t="n">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="P13" t="n">
         <v>36.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.0</v>
+        <v>56.0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="T13" t="n">
         <v>12.0</v>
@@ -19254,16 +19242,16 @@
         <v>2.0</v>
       </c>
       <c r="V13" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="W13" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="X13" t="s">
         <v>67</v>
       </c>
       <c r="Y13" t="s">
-        <v>714</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
@@ -19271,7 +19259,7 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C14" t="n">
         <v>28.0</v>
@@ -19348,7 +19336,7 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C15" t="n">
         <v>22.0</v>
@@ -19425,7 +19413,7 @@
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C16" t="n">
         <v>28.0</v>
@@ -19455,7 +19443,7 @@
         <v>245</v>
       </c>
       <c r="L16" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="M16" t="s">
         <v>344</v>
@@ -19502,7 +19490,7 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C17" t="n">
         <v>29.0</v>
@@ -19535,7 +19523,7 @@
         <v>107</v>
       </c>
       <c r="M17" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="N17" t="n">
         <v>10.0</v>
@@ -19579,16 +19567,16 @@
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C18" t="n">
         <v>21.0</v>
       </c>
       <c r="D18" t="n">
-        <v>27.0</v>
+        <v>31.0</v>
       </c>
       <c r="E18" t="n">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
       <c r="F18" t="n">
         <v>4.0</v>
@@ -19597,34 +19585,34 @@
         <v>0.8</v>
       </c>
       <c r="H18" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="I18" t="n">
         <v>2.0</v>
       </c>
       <c r="J18" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="K18" t="s">
         <v>62</v>
       </c>
       <c r="L18" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="M18" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="N18" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="O18" t="n">
         <v>8.0</v>
       </c>
       <c r="P18" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="Q18" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="R18" t="n">
         <v>0.0</v>
@@ -19636,7 +19624,7 @@
         <v>9.0</v>
       </c>
       <c r="U18" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="V18" t="n">
         <v>9.0</v>
@@ -19645,10 +19633,10 @@
         <v>291</v>
       </c>
       <c r="X18" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="Y18" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19">
@@ -19656,7 +19644,7 @@
         <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -19725,7 +19713,7 @@
         <v>105</v>
       </c>
       <c r="Y19" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="20">
@@ -19733,7 +19721,7 @@
         <v>263</v>
       </c>
       <c r="B20" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C20" t="n">
         <v>24.0</v>
@@ -19810,7 +19798,7 @@
         <v>264</v>
       </c>
       <c r="B21" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C21" t="n">
         <v>29.0</v>
@@ -19934,7 +19922,7 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
@@ -19975,7 +19963,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C2" t="n">
         <v>23.0</v>
@@ -20041,7 +20029,7 @@
         <v>305</v>
       </c>
       <c r="X2" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="Y2" t="s">
         <v>66</v>
@@ -20052,7 +20040,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C3" t="n">
         <v>23.0</v>
@@ -20085,7 +20073,7 @@
         <v>255</v>
       </c>
       <c r="M3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="N3" t="n">
         <v>12.0</v>
@@ -20129,7 +20117,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C4" t="n">
         <v>29.0</v>
@@ -20206,7 +20194,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C5" t="n">
         <v>21.0</v>
@@ -20283,7 +20271,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C6" t="n">
         <v>23.0</v>
@@ -20360,7 +20348,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C7" t="n">
         <v>31.0</v>
@@ -20437,7 +20425,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C8" t="n">
         <v>26.0</v>
@@ -20470,7 +20458,7 @@
         <v>188</v>
       </c>
       <c r="M8" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="N8" t="n">
         <v>12.0</v>
@@ -20514,7 +20502,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C9" t="n">
         <v>27.0</v>
@@ -20591,7 +20579,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C10" t="n">
         <v>22.0</v>
@@ -20624,7 +20612,7 @@
         <v>186</v>
       </c>
       <c r="M10" t="s">
-        <v>757</v>
+        <v>646</v>
       </c>
       <c r="N10" t="n">
         <v>12.0</v>
@@ -20660,7 +20648,7 @@
         <v>299</v>
       </c>
       <c r="Y10" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="11">
@@ -20668,7 +20656,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C11" t="n">
         <v>23.0</v>
@@ -20745,7 +20733,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C12" t="n">
         <v>47.0</v>
@@ -20822,7 +20810,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C13" t="n">
         <v>21.0</v>
@@ -20899,7 +20887,7 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C14" t="n">
         <v>19.0</v>
@@ -20976,7 +20964,7 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C15" t="n">
         <v>28.0</v>
@@ -21053,7 +21041,7 @@
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C16" t="n">
         <v>37.0</v>
@@ -21130,7 +21118,7 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C17" t="n">
         <v>20.0</v>
@@ -21207,7 +21195,7 @@
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C18" t="n">
         <v>31.0</v>
@@ -21284,7 +21272,7 @@
         <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C19" t="n">
         <v>24.0</v>
@@ -21361,7 +21349,7 @@
         <v>263</v>
       </c>
       <c r="B20" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C20" t="n">
         <v>30.0</v>
@@ -21430,7 +21418,7 @@
         <v>240</v>
       </c>
       <c r="Y20" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="21">
@@ -21438,7 +21426,7 @@
         <v>264</v>
       </c>
       <c r="B21" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C21" t="n">
         <v>21.0</v>
@@ -21515,7 +21503,7 @@
         <v>314</v>
       </c>
       <c r="B22" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C22" t="n">
         <v>26.0</v>
@@ -21592,7 +21580,7 @@
         <v>315</v>
       </c>
       <c r="B23" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C23" t="n">
         <v>26.0</v>
@@ -21619,13 +21607,13 @@
         <v>8.0</v>
       </c>
       <c r="K23" t="s">
-        <v>681</v>
+        <v>650</v>
       </c>
       <c r="L23" t="s">
         <v>66</v>
       </c>
       <c r="M23" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="N23" t="n">
         <v>12.0</v>
@@ -21716,7 +21704,7 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
@@ -21757,7 +21745,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C2" t="n">
         <v>27.0</v>
@@ -21834,7 +21822,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C3" t="n">
         <v>19.0</v>
@@ -21903,7 +21891,7 @@
         <v>106</v>
       </c>
       <c r="Y3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="4">
@@ -21911,7 +21899,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C4" t="n">
         <v>20.0</v>
@@ -21980,7 +21968,7 @@
         <v>559</v>
       </c>
       <c r="Y4" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="5">
@@ -21988,7 +21976,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C5" t="n">
         <v>23.0</v>
@@ -22057,7 +22045,7 @@
         <v>76</v>
       </c>
       <c r="Y5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="6">
@@ -22065,7 +22053,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C6" t="n">
         <v>35.0</v>
@@ -22142,7 +22130,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C7" t="n">
         <v>25.0</v>
@@ -22219,7 +22207,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C8" t="n">
         <v>26.0</v>
@@ -22296,7 +22284,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C9" t="n">
         <v>17.0</v>
@@ -22373,7 +22361,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -22450,7 +22438,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C11" t="n">
         <v>17.0</v>
@@ -22483,7 +22471,7 @@
         <v>482</v>
       </c>
       <c r="M11" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="N11" t="n">
         <v>10.0</v>
@@ -22527,7 +22515,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C12" t="n">
         <v>19.0</v>
@@ -22560,7 +22548,7 @@
         <v>75</v>
       </c>
       <c r="M12" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="N12" t="n">
         <v>10.0</v>
@@ -22604,7 +22592,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C13" t="n">
         <v>24.0</v>
@@ -22681,7 +22669,7 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C14" t="n">
         <v>25.0</v>
@@ -22758,7 +22746,7 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C15" t="n">
         <v>21.0</v>
@@ -22835,7 +22823,7 @@
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C16" t="n">
         <v>15.0</v>
@@ -22904,7 +22892,7 @@
         <v>239</v>
       </c>
       <c r="Y16" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="17">
@@ -22912,7 +22900,7 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C17" t="n">
         <v>28.0</v>
@@ -22981,7 +22969,7 @@
         <v>107</v>
       </c>
       <c r="Y17" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="18">
@@ -22989,7 +22977,7 @@
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C18" t="n">
         <v>13.0</v>
@@ -23055,10 +23043,10 @@
         <v>170</v>
       </c>
       <c r="X18" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="Y18" t="s">
-        <v>883</v>
+        <v>649</v>
       </c>
     </row>
     <row r="19">
@@ -23066,7 +23054,7 @@
         <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -23143,7 +23131,7 @@
         <v>263</v>
       </c>
       <c r="B20" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C20" t="n">
         <v>26.0</v>
@@ -23212,7 +23200,7 @@
         <v>166</v>
       </c>
       <c r="Y20" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="21">
@@ -23220,7 +23208,7 @@
         <v>264</v>
       </c>
       <c r="B21" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C21" t="n">
         <v>20.0</v>

--- a/ShotsAnalysis.xlsx
+++ b/ShotsAnalysis.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3744" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3744" uniqueCount="1086">
   <si>
     <t>Group.1</t>
   </si>
@@ -2186,13 +2186,13 @@
     <t>24.36%</t>
   </si>
   <si>
-    <t>24.05%</t>
+    <t>25.32%</t>
   </si>
   <si>
     <t>28.36%</t>
   </si>
   <si>
-    <t>42.05%</t>
+    <t>42.70%</t>
   </si>
   <si>
     <t>23.33%</t>
@@ -2402,6 +2402,9 @@
     <t>37.88%</t>
   </si>
   <si>
+    <t>26.15%</t>
+  </si>
+  <si>
     <t>27.12%</t>
   </si>
   <si>
@@ -2414,9 +2417,6 @@
     <t>34.55%</t>
   </si>
   <si>
-    <t>40.98%</t>
-  </si>
-  <si>
     <t>53.12%</t>
   </si>
   <si>
@@ -2438,6 +2438,9 @@
     <t>21.67%</t>
   </si>
   <si>
+    <t>29.69%</t>
+  </si>
+  <si>
     <t>37.76%</t>
   </si>
   <si>
@@ -2750,7 +2753,7 @@
     <t>51.85%</t>
   </si>
   <si>
-    <t>35.09%</t>
+    <t>35.59%</t>
   </si>
   <si>
     <t>sc0_games_played</t>
@@ -2978,9 +2981,6 @@
     <t>25.88%</t>
   </si>
   <si>
-    <t>25.32%</t>
-  </si>
-  <si>
     <t>sp1_games_played</t>
   </si>
   <si>
@@ -3056,9 +3056,6 @@
     <t>29.09%</t>
   </si>
   <si>
-    <t>29.69%</t>
-  </si>
-  <si>
     <t>25.40%</t>
   </si>
   <si>
@@ -3077,7 +3074,7 @@
     <t>38.18%</t>
   </si>
   <si>
-    <t>26.44%</t>
+    <t>37.80%</t>
   </si>
   <si>
     <t>sp2_games_played</t>
@@ -3266,10 +3263,10 @@
     <t>38.81%</t>
   </si>
   <si>
+    <t>34.43%</t>
+  </si>
+  <si>
     <t>22.54%</t>
-  </si>
-  <si>
-    <t>39.62%</t>
   </si>
   <si>
     <t>38.55%</t>
@@ -6148,34 +6145,34 @@
         <v>1.0</v>
       </c>
       <c r="H18" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.2222222222222223</v>
+        <v>1.2</v>
       </c>
       <c r="J18" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="K18" t="s">
         <v>337</v>
       </c>
       <c r="L18" t="s">
-        <v>105</v>
+        <v>344</v>
       </c>
       <c r="M18" t="s">
         <v>717</v>
       </c>
       <c r="N18" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="O18" t="n">
         <v>12.0</v>
       </c>
       <c r="P18" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="Q18" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="R18" t="n">
         <v>6.0</v>
@@ -6184,22 +6181,22 @@
         <v>0.75</v>
       </c>
       <c r="T18" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="U18" t="n">
-        <v>1.1111111111111112</v>
+        <v>1.1</v>
       </c>
       <c r="V18" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="W18" t="s">
         <v>108</v>
       </c>
       <c r="X18" t="s">
-        <v>515</v>
+        <v>490</v>
       </c>
       <c r="Y18" t="s">
-        <v>426</v>
+        <v>513</v>
       </c>
     </row>
     <row r="19">
@@ -6287,19 +6284,19 @@
         <v>710</v>
       </c>
       <c r="C20" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="D20" t="n">
         <v>45.0</v>
       </c>
       <c r="E20" t="n">
-        <v>88.0</v>
+        <v>89.0</v>
       </c>
       <c r="F20" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.75</v>
+        <v>2.5555555555555554</v>
       </c>
       <c r="H20" t="n">
         <v>15.0</v>
@@ -6308,10 +6305,10 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="J20" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="K20" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="L20" t="s">
         <v>64</v>
@@ -6320,7 +6317,7 @@
         <v>719</v>
       </c>
       <c r="N20" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="O20" t="n">
         <v>31.0</v>
@@ -6332,10 +6329,10 @@
         <v>54.0</v>
       </c>
       <c r="R20" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.125</v>
+        <v>1.1111111111111112</v>
       </c>
       <c r="T20" t="n">
         <v>7.0</v>
@@ -6344,16 +6341,16 @@
         <v>0.7777777777777778</v>
       </c>
       <c r="V20" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="W20" t="s">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c r="X20" t="s">
         <v>361</v>
       </c>
       <c r="Y20" t="s">
-        <v>80</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21">
@@ -7912,7 +7909,7 @@
         <v>115</v>
       </c>
       <c r="X4" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="Y4" t="s">
         <v>575</v>
@@ -8542,19 +8539,19 @@
         <v>772</v>
       </c>
       <c r="C13" t="n">
-        <v>34.0</v>
+        <v>40.0</v>
       </c>
       <c r="D13" t="n">
         <v>46.0</v>
       </c>
       <c r="E13" t="n">
-        <v>80.0</v>
+        <v>86.0</v>
       </c>
       <c r="F13" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.25</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="H13" t="n">
         <v>14.0</v>
@@ -8563,34 +8560,34 @@
         <v>1.75</v>
       </c>
       <c r="J13" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="K13" t="s">
-        <v>506</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s">
         <v>361</v>
       </c>
       <c r="M13" t="s">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="N13" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="O13" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="P13" t="n">
         <v>28.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.0</v>
+        <v>64.0</v>
       </c>
       <c r="R13" t="n">
         <v>7.0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.875</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="T13" t="n">
         <v>12.0</v>
@@ -8602,13 +8599,13 @@
         <v>19.0</v>
       </c>
       <c r="W13" t="s">
-        <v>578</v>
+        <v>488</v>
       </c>
       <c r="X13" t="s">
         <v>123</v>
       </c>
       <c r="Y13" t="s">
-        <v>422</v>
+        <v>801</v>
       </c>
     </row>
     <row r="14">
@@ -8685,7 +8682,7 @@
         <v>205</v>
       </c>
       <c r="Y14" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="15">
@@ -8756,7 +8753,7 @@
         <v>33.0</v>
       </c>
       <c r="W15" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="X15" t="s">
         <v>405</v>
@@ -8839,7 +8836,7 @@
         <v>661</v>
       </c>
       <c r="Y16" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="17">
@@ -8853,10 +8850,10 @@
         <v>32.0</v>
       </c>
       <c r="D17" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="E17" t="n">
-        <v>63.0</v>
+        <v>65.0</v>
       </c>
       <c r="F17" t="n">
         <v>9.0</v>
@@ -8868,7 +8865,7 @@
         <v>8.0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.0</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="J17" t="n">
         <v>17.0</v>
@@ -8877,22 +8874,22 @@
         <v>167</v>
       </c>
       <c r="L17" t="s">
-        <v>298</v>
+        <v>356</v>
       </c>
       <c r="M17" t="s">
-        <v>409</v>
+        <v>789</v>
       </c>
       <c r="N17" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="O17" t="n">
         <v>35.0</v>
       </c>
       <c r="P17" t="n">
-        <v>61.0</v>
+        <v>67.0</v>
       </c>
       <c r="Q17" t="n">
-        <v>96.0</v>
+        <v>102.0</v>
       </c>
       <c r="R17" t="n">
         <v>11.0</v>
@@ -8901,22 +8898,22 @@
         <v>1.375</v>
       </c>
       <c r="T17" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="U17" t="n">
-        <v>3.125</v>
+        <v>3.0</v>
       </c>
       <c r="V17" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="W17" t="s">
         <v>166</v>
       </c>
       <c r="X17" t="s">
-        <v>793</v>
+        <v>669</v>
       </c>
       <c r="Y17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -9111,7 +9108,7 @@
         <v>336</v>
       </c>
       <c r="M20" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="N20" t="n">
         <v>17.0</v>
@@ -9188,7 +9185,7 @@
         <v>332</v>
       </c>
       <c r="M21" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="N21" t="n">
         <v>17.0</v>
@@ -9279,7 +9276,7 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
@@ -9320,7 +9317,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C2" t="n">
         <v>38.0</v>
@@ -9386,7 +9383,7 @@
         <v>117</v>
       </c>
       <c r="X2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="Y2" t="s">
         <v>104</v>
@@ -9397,7 +9394,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C3" t="n">
         <v>33.0</v>
@@ -9474,7 +9471,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C4" t="n">
         <v>44.0</v>
@@ -9551,7 +9548,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C5" t="n">
         <v>30.0</v>
@@ -9617,7 +9614,7 @@
         <v>662</v>
       </c>
       <c r="X5" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="Y5" t="s">
         <v>419</v>
@@ -9628,7 +9625,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C6" t="n">
         <v>47.0</v>
@@ -9697,7 +9694,7 @@
         <v>596</v>
       </c>
       <c r="Y6" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="7">
@@ -9705,7 +9702,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C7" t="n">
         <v>44.0</v>
@@ -9732,7 +9729,7 @@
         <v>24.0</v>
       </c>
       <c r="K7" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="L7" t="s">
         <v>428</v>
@@ -9771,10 +9768,10 @@
         <v>86</v>
       </c>
       <c r="X7" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="Y7" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="8">
@@ -9782,7 +9779,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C8" t="n">
         <v>32.0</v>
@@ -9851,7 +9848,7 @@
         <v>497</v>
       </c>
       <c r="Y8" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="9">
@@ -9859,7 +9856,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C9" t="n">
         <v>36.0</v>
@@ -9922,7 +9919,7 @@
         <v>16.0</v>
       </c>
       <c r="W9" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="X9" t="s">
         <v>231</v>
@@ -9936,7 +9933,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C10" t="n">
         <v>34.0</v>
@@ -10013,7 +10010,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C11" t="n">
         <v>42.0</v>
@@ -10090,7 +10087,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C12" t="n">
         <v>49.0</v>
@@ -10123,7 +10120,7 @@
         <v>200</v>
       </c>
       <c r="M12" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="N12" t="n">
         <v>17.0</v>
@@ -10167,7 +10164,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C13" t="n">
         <v>30.0</v>
@@ -10194,13 +10191,13 @@
         <v>24.0</v>
       </c>
       <c r="K13" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="L13" t="s">
         <v>98</v>
       </c>
       <c r="M13" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="N13" t="n">
         <v>17.0</v>
@@ -10244,7 +10241,7 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C14" t="n">
         <v>31.0</v>
@@ -10274,7 +10271,7 @@
         <v>723</v>
       </c>
       <c r="L14" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="M14" t="s">
         <v>481</v>
@@ -10313,7 +10310,7 @@
         <v>82</v>
       </c>
       <c r="Y14" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="15">
@@ -10321,7 +10318,7 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C15" t="n">
         <v>32.0</v>
@@ -10398,7 +10395,7 @@
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C16" t="n">
         <v>30.0</v>
@@ -10461,7 +10458,7 @@
         <v>12.0</v>
       </c>
       <c r="W16" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="X16" t="s">
         <v>356</v>
@@ -10475,7 +10472,7 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C17" t="n">
         <v>32.0</v>
@@ -10552,7 +10549,7 @@
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C18" t="n">
         <v>41.0</v>
@@ -10585,7 +10582,7 @@
         <v>109</v>
       </c>
       <c r="M18" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="N18" t="n">
         <v>17.0</v>
@@ -10621,7 +10618,7 @@
         <v>64</v>
       </c>
       <c r="Y18" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="19">
@@ -10629,7 +10626,7 @@
         <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C19" t="n">
         <v>59.0</v>
@@ -10656,7 +10653,7 @@
         <v>22.0</v>
       </c>
       <c r="K19" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="L19" t="s">
         <v>331</v>
@@ -10706,7 +10703,7 @@
         <v>308</v>
       </c>
       <c r="B20" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C20" t="n">
         <v>48.0</v>
@@ -10775,7 +10772,7 @@
         <v>228</v>
       </c>
       <c r="Y20" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="21">
@@ -10783,7 +10780,7 @@
         <v>309</v>
       </c>
       <c r="B21" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C21" t="n">
         <v>32.0</v>
@@ -10816,7 +10813,7 @@
         <v>74</v>
       </c>
       <c r="M21" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="N21" t="n">
         <v>17.0</v>
@@ -10907,7 +10904,7 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
@@ -10948,7 +10945,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C2" t="n">
         <v>75.0</v>
@@ -10981,7 +10978,7 @@
         <v>64</v>
       </c>
       <c r="M2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="N2" t="n">
         <v>16.0</v>
@@ -11014,10 +11011,10 @@
         <v>172</v>
       </c>
       <c r="X2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="Y2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="3">
@@ -11025,7 +11022,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C3" t="n">
         <v>48.0</v>
@@ -11088,7 +11085,7 @@
         <v>22.0</v>
       </c>
       <c r="W3" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="X3" t="s">
         <v>270</v>
@@ -11102,7 +11099,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C4" t="n">
         <v>35.0</v>
@@ -11179,7 +11176,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C5" t="n">
         <v>73.0</v>
@@ -11256,7 +11253,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C6" t="n">
         <v>24.0</v>
@@ -11289,7 +11286,7 @@
         <v>257</v>
       </c>
       <c r="M6" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N6" t="n">
         <v>16.0</v>
@@ -11325,7 +11322,7 @@
         <v>182</v>
       </c>
       <c r="Y6" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="7">
@@ -11333,7 +11330,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C7" t="n">
         <v>39.0</v>
@@ -11399,10 +11396,10 @@
         <v>597</v>
       </c>
       <c r="X7" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="Y7" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="8">
@@ -11410,7 +11407,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C8" t="n">
         <v>26.0</v>
@@ -11487,7 +11484,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C9" t="n">
         <v>32.0</v>
@@ -11564,7 +11561,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C10" t="n">
         <v>44.0</v>
@@ -11641,7 +11638,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C11" t="n">
         <v>48.0</v>
@@ -11671,10 +11668,10 @@
         <v>353</v>
       </c>
       <c r="L11" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="M11" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="N11" t="n">
         <v>16.0</v>
@@ -11718,7 +11715,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C12" t="n">
         <v>64.0</v>
@@ -11751,7 +11748,7 @@
         <v>573</v>
       </c>
       <c r="M12" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="N12" t="n">
         <v>16.0</v>
@@ -11781,7 +11778,7 @@
         <v>23.0</v>
       </c>
       <c r="W12" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="X12" t="s">
         <v>593</v>
@@ -11795,7 +11792,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C13" t="n">
         <v>28.0</v>
@@ -11872,7 +11869,7 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C14" t="n">
         <v>39.0</v>
@@ -11949,7 +11946,7 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C15" t="n">
         <v>60.0</v>
@@ -12026,7 +12023,7 @@
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C16" t="n">
         <v>45.0</v>
@@ -12089,7 +12086,7 @@
         <v>23.0</v>
       </c>
       <c r="W16" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="X16" t="s">
         <v>117</v>
@@ -12103,7 +12100,7 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C17" t="n">
         <v>28.0</v>
@@ -12180,7 +12177,7 @@
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C18" t="n">
         <v>26.0</v>
@@ -12249,7 +12246,7 @@
         <v>61</v>
       </c>
       <c r="Y18" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="19">
@@ -12257,7 +12254,7 @@
         <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -12284,13 +12281,13 @@
         <v>8.0</v>
       </c>
       <c r="K19" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="L19" t="s">
         <v>258</v>
       </c>
       <c r="M19" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="N19" t="n">
         <v>16.0</v>
@@ -12381,7 +12378,7 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
@@ -12422,22 +12419,22 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C2" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="D2" t="n">
         <v>21.0</v>
       </c>
       <c r="E2" t="n">
-        <v>48.0</v>
+        <v>50.0</v>
       </c>
       <c r="F2" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.5</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="H2" t="n">
         <v>5.0</v>
@@ -12446,34 +12443,34 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="J2" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>282</v>
       </c>
       <c r="L2" t="s">
         <v>207</v>
       </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="N2" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.0</v>
+        <v>35.0</v>
       </c>
       <c r="P2" t="n">
         <v>27.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>58.0</v>
+        <v>62.0</v>
       </c>
       <c r="R2" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.3333333333333333</v>
+        <v>1.7142857142857142</v>
       </c>
       <c r="T2" t="n">
         <v>12.0</v>
@@ -12482,16 +12479,16 @@
         <v>1.7142857142857142</v>
       </c>
       <c r="V2" t="n">
-        <v>20.0</v>
+        <v>24.0</v>
       </c>
       <c r="W2" t="s">
-        <v>298</v>
+        <v>139</v>
       </c>
       <c r="X2" t="s">
         <v>497</v>
       </c>
       <c r="Y2" t="s">
-        <v>282</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3">
@@ -12499,7 +12496,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C3" t="n">
         <v>13.0</v>
@@ -12529,7 +12526,7 @@
         <v>73</v>
       </c>
       <c r="L3" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="M3" t="s">
         <v>105</v>
@@ -12576,7 +12573,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C4" t="n">
         <v>38.0</v>
@@ -12606,10 +12603,10 @@
         <v>231</v>
       </c>
       <c r="L4" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="M4" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="N4" t="n">
         <v>14.0</v>
@@ -12642,7 +12639,7 @@
         <v>64</v>
       </c>
       <c r="X4" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="Y4" t="s">
         <v>362</v>
@@ -12653,7 +12650,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C5" t="n">
         <v>28.0</v>
@@ -12722,7 +12719,7 @@
         <v>61</v>
       </c>
       <c r="Y5" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="6">
@@ -12730,7 +12727,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C6" t="n">
         <v>20.0</v>
@@ -12763,7 +12760,7 @@
         <v>139</v>
       </c>
       <c r="M6" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N6" t="n">
         <v>14.0</v>
@@ -12807,7 +12804,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C7" t="n">
         <v>21.0</v>
@@ -12870,13 +12867,13 @@
         <v>28.0</v>
       </c>
       <c r="W7" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="X7" t="s">
         <v>204</v>
       </c>
       <c r="Y7" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="8">
@@ -12884,7 +12881,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C8" t="n">
         <v>40.0</v>
@@ -12917,7 +12914,7 @@
         <v>675</v>
       </c>
       <c r="M8" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="N8" t="n">
         <v>14.0</v>
@@ -12953,7 +12950,7 @@
         <v>720</v>
       </c>
       <c r="Y8" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="9">
@@ -12961,7 +12958,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C9" t="n">
         <v>42.0</v>
@@ -13038,7 +13035,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C10" t="n">
         <v>22.0</v>
@@ -13115,7 +13112,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C11" t="n">
         <v>23.0</v>
@@ -13192,7 +13189,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C12" t="n">
         <v>19.0</v>
@@ -13269,7 +13266,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C13" t="n">
         <v>31.0</v>
@@ -13296,7 +13293,7 @@
         <v>14.0</v>
       </c>
       <c r="K13" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="L13" t="s">
         <v>108</v>
@@ -13346,7 +13343,7 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C14" t="n">
         <v>50.0</v>
@@ -13423,7 +13420,7 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C15" t="n">
         <v>21.0</v>
@@ -13500,7 +13497,7 @@
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C16" t="n">
         <v>45.0</v>
@@ -13577,7 +13574,7 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C17" t="n">
         <v>46.0</v>
@@ -13610,7 +13607,7 @@
         <v>64</v>
       </c>
       <c r="M17" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="N17" t="n">
         <v>14.0</v>
@@ -13654,7 +13651,7 @@
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C18" t="n">
         <v>26.0</v>
@@ -13681,7 +13678,7 @@
         <v>19.0</v>
       </c>
       <c r="K18" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="L18" t="s">
         <v>228</v>
@@ -13731,16 +13728,16 @@
         <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C19" t="n">
         <v>25.0</v>
       </c>
       <c r="D19" t="n">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="E19" t="n">
-        <v>41.0</v>
+        <v>45.0</v>
       </c>
       <c r="F19" t="n">
         <v>6.0</v>
@@ -13749,34 +13746,34 @@
         <v>1.0</v>
       </c>
       <c r="H19" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="J19" t="n">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="K19" t="s">
         <v>175</v>
       </c>
       <c r="L19" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="M19" t="s">
-        <v>433</v>
+        <v>260</v>
       </c>
       <c r="N19" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="O19" t="n">
         <v>20.0</v>
       </c>
       <c r="P19" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.0</v>
+        <v>59.0</v>
       </c>
       <c r="R19" t="n">
         <v>6.0</v>
@@ -13785,22 +13782,22 @@
         <v>1.0</v>
       </c>
       <c r="T19" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="U19" t="n">
-        <v>2.3333333333333335</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="V19" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="W19" t="s">
         <v>140</v>
       </c>
       <c r="X19" t="s">
-        <v>598</v>
+        <v>73</v>
       </c>
       <c r="Y19" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
   </sheetData>
@@ -13855,7 +13852,7 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
@@ -13896,7 +13893,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C2" t="n">
         <v>48.0</v>
@@ -13965,7 +13962,7 @@
         <v>201</v>
       </c>
       <c r="Y2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="3">
@@ -13973,7 +13970,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C3" t="n">
         <v>66.0</v>
@@ -14006,7 +14003,7 @@
         <v>330</v>
       </c>
       <c r="M3" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="N3" t="n">
         <v>17.0</v>
@@ -14050,7 +14047,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C4" t="n">
         <v>46.0</v>
@@ -14119,7 +14116,7 @@
         <v>306</v>
       </c>
       <c r="Y4" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="5">
@@ -14127,7 +14124,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C5" t="n">
         <v>37.0</v>
@@ -14154,13 +14151,13 @@
         <v>15.0</v>
       </c>
       <c r="K5" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="L5" t="s">
         <v>712</v>
       </c>
       <c r="M5" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="N5" t="n">
         <v>18.0</v>
@@ -14196,7 +14193,7 @@
         <v>203</v>
       </c>
       <c r="Y5" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="6">
@@ -14204,7 +14201,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C6" t="n">
         <v>52.0</v>
@@ -14237,7 +14234,7 @@
         <v>182</v>
       </c>
       <c r="M6" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="N6" t="n">
         <v>18.0</v>
@@ -14273,7 +14270,7 @@
         <v>758</v>
       </c>
       <c r="Y6" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="7">
@@ -14281,7 +14278,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C7" t="n">
         <v>30.0</v>
@@ -14358,7 +14355,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C8" t="n">
         <v>33.0</v>
@@ -14427,7 +14424,7 @@
         <v>436</v>
       </c>
       <c r="Y8" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="9">
@@ -14435,7 +14432,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C9" t="n">
         <v>30.0</v>
@@ -14498,7 +14495,7 @@
         <v>26.0</v>
       </c>
       <c r="W9" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="X9" t="s">
         <v>105</v>
@@ -14512,7 +14509,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C10" t="n">
         <v>59.0</v>
@@ -14589,7 +14586,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C11" t="n">
         <v>34.0</v>
@@ -14658,7 +14655,7 @@
         <v>679</v>
       </c>
       <c r="Y11" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="12">
@@ -14666,7 +14663,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C12" t="n">
         <v>23.0</v>
@@ -14732,7 +14729,7 @@
         <v>110</v>
       </c>
       <c r="X12" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="Y12" t="s">
         <v>356</v>
@@ -14743,7 +14740,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C13" t="n">
         <v>38.0</v>
@@ -14809,7 +14806,7 @@
         <v>288</v>
       </c>
       <c r="X13" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="Y13" t="s">
         <v>138</v>
@@ -14867,7 +14864,7 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
@@ -14908,7 +14905,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C2" t="n">
         <v>41.0</v>
@@ -14985,7 +14982,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C3" t="n">
         <v>27.0</v>
@@ -15054,7 +15051,7 @@
         <v>108</v>
       </c>
       <c r="Y3" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="4">
@@ -15062,7 +15059,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C4" t="n">
         <v>32.0</v>
@@ -15139,7 +15136,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -15216,7 +15213,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C6" t="n">
         <v>35.0</v>
@@ -15293,7 +15290,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C7" t="n">
         <v>33.0</v>
@@ -15362,7 +15359,7 @@
         <v>753</v>
       </c>
       <c r="Y7" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="8">
@@ -15370,7 +15367,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C8" t="n">
         <v>33.0</v>
@@ -15447,7 +15444,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C9" t="n">
         <v>32.0</v>
@@ -15477,7 +15474,7 @@
         <v>165</v>
       </c>
       <c r="L9" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="M9" t="s">
         <v>503</v>
@@ -15516,7 +15513,7 @@
         <v>506</v>
       </c>
       <c r="Y9" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="10">
@@ -15524,7 +15521,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C10" t="n">
         <v>27.0</v>
@@ -15593,7 +15590,7 @@
         <v>259</v>
       </c>
       <c r="Y10" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="11">
@@ -15601,7 +15598,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C11" t="n">
         <v>35.0</v>
@@ -15667,7 +15664,7 @@
         <v>88</v>
       </c>
       <c r="X11" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="Y11" t="s">
         <v>184</v>
@@ -15725,7 +15722,7 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
@@ -15766,7 +15763,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C2" t="n">
         <v>47.0</v>
@@ -15843,7 +15840,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C3" t="n">
         <v>42.0</v>
@@ -15876,7 +15873,7 @@
         <v>713</v>
       </c>
       <c r="M3" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="N3" t="n">
         <v>17.0</v>
@@ -15920,7 +15917,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C4" t="n">
         <v>27.0</v>
@@ -15997,7 +15994,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C5" t="n">
         <v>44.0</v>
@@ -16074,7 +16071,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C6" t="n">
         <v>25.0</v>
@@ -16107,7 +16104,7 @@
         <v>500</v>
       </c>
       <c r="M6" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="N6" t="n">
         <v>17.0</v>
@@ -16143,7 +16140,7 @@
         <v>216</v>
       </c>
       <c r="Y6" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="7">
@@ -16151,7 +16148,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C7" t="n">
         <v>32.0</v>
@@ -16217,10 +16214,10 @@
         <v>67</v>
       </c>
       <c r="X7" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="Y7" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="8">
@@ -16228,7 +16225,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C8" t="n">
         <v>33.0</v>
@@ -16261,7 +16258,7 @@
         <v>490</v>
       </c>
       <c r="M8" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="N8" t="n">
         <v>17.0</v>
@@ -16305,7 +16302,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C9" t="n">
         <v>43.0</v>
@@ -16335,7 +16332,7 @@
         <v>124</v>
       </c>
       <c r="L9" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="M9" t="s">
         <v>73</v>
@@ -16382,7 +16379,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C10" t="n">
         <v>41.0</v>
@@ -16448,7 +16445,7 @@
         <v>267</v>
       </c>
       <c r="X10" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="Y10" t="s">
         <v>217</v>
@@ -16459,7 +16456,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C11" t="n">
         <v>62.0</v>
@@ -16492,7 +16489,7 @@
         <v>123</v>
       </c>
       <c r="M11" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="N11" t="n">
         <v>16.0</v>
@@ -16528,7 +16525,7 @@
         <v>259</v>
       </c>
       <c r="Y11" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
   </sheetData>
@@ -16583,7 +16580,7 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
@@ -16624,7 +16621,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C2" t="n">
         <v>38.0</v>
@@ -16693,7 +16690,7 @@
         <v>517</v>
       </c>
       <c r="Y2" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="3">
@@ -16701,7 +16698,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C3" t="n">
         <v>46.0</v>
@@ -16778,7 +16775,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C4" t="n">
         <v>18.0</v>
@@ -16808,7 +16805,7 @@
         <v>205</v>
       </c>
       <c r="L4" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="M4" t="s">
         <v>223</v>
@@ -16855,7 +16852,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C5" t="n">
         <v>24.0</v>
@@ -16882,7 +16879,7 @@
         <v>20.0</v>
       </c>
       <c r="K5" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="L5" t="s">
         <v>105</v>
@@ -16924,7 +16921,7 @@
         <v>200</v>
       </c>
       <c r="Y5" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="6">
@@ -16932,7 +16929,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C6" t="n">
         <v>38.0</v>
@@ -16965,7 +16962,7 @@
         <v>64</v>
       </c>
       <c r="M6" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="N6" t="n">
         <v>15.0</v>
@@ -17009,7 +17006,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C7" t="n">
         <v>37.0</v>
@@ -17036,7 +17033,7 @@
         <v>28.0</v>
       </c>
       <c r="K7" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="L7" t="s">
         <v>166</v>
@@ -17086,7 +17083,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C8" t="n">
         <v>52.0</v>
@@ -17119,7 +17116,7 @@
         <v>91</v>
       </c>
       <c r="M8" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="N8" t="n">
         <v>15.0</v>
@@ -17163,7 +17160,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C9" t="n">
         <v>39.0</v>
@@ -17240,7 +17237,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C10" t="n">
         <v>30.0</v>
@@ -17309,7 +17306,7 @@
         <v>77</v>
       </c>
       <c r="Y10" t="s">
-        <v>981</v>
+        <v>717</v>
       </c>
     </row>
     <row r="11">
@@ -17317,7 +17314,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C11" t="n">
         <v>37.0</v>
@@ -19099,7 +19096,7 @@
         <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="Y3" t="s">
         <v>331</v>
@@ -19176,7 +19173,7 @@
         <v>264</v>
       </c>
       <c r="X4" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="Y4" t="s">
         <v>108</v>
@@ -19291,7 +19288,7 @@
         <v>30.0</v>
       </c>
       <c r="K6" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="L6" t="s">
         <v>64</v>
@@ -19344,19 +19341,19 @@
         <v>988</v>
       </c>
       <c r="C7" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="D7" t="n">
         <v>25.0</v>
       </c>
       <c r="E7" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="F7" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H7" t="n">
         <v>9.0</v>
@@ -19365,34 +19362,34 @@
         <v>1.125</v>
       </c>
       <c r="J7" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="K7" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="L7" t="s">
         <v>259</v>
       </c>
       <c r="M7" t="s">
-        <v>170</v>
+        <v>291</v>
       </c>
       <c r="N7" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="O7" t="n">
-        <v>33.0</v>
+        <v>38.0</v>
       </c>
       <c r="P7" t="n">
         <v>44.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>77.0</v>
+        <v>82.0</v>
       </c>
       <c r="R7" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="S7" t="n">
-        <v>1.625</v>
+        <v>1.5555555555555556</v>
       </c>
       <c r="T7" t="n">
         <v>17.0</v>
@@ -19401,16 +19398,16 @@
         <v>2.125</v>
       </c>
       <c r="V7" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="W7" t="s">
-        <v>354</v>
+        <v>231</v>
       </c>
       <c r="X7" t="s">
         <v>69</v>
       </c>
       <c r="Y7" t="s">
-        <v>421</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="8">
@@ -19451,7 +19448,7 @@
         <v>128</v>
       </c>
       <c r="M8" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="N8" t="n">
         <v>17.0</v>
@@ -19487,7 +19484,7 @@
         <v>179</v>
       </c>
       <c r="Y8" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="9">
@@ -19605,7 +19602,7 @@
         <v>173</v>
       </c>
       <c r="M10" t="s">
-        <v>1007</v>
+        <v>801</v>
       </c>
       <c r="N10" t="n">
         <v>17.0</v>
@@ -19732,10 +19729,10 @@
         <v>15.0</v>
       </c>
       <c r="D12" t="n">
-        <v>29.0</v>
+        <v>34.0</v>
       </c>
       <c r="E12" t="n">
-        <v>44.0</v>
+        <v>49.0</v>
       </c>
       <c r="F12" t="n">
         <v>9.0</v>
@@ -19744,34 +19741,34 @@
         <v>1.2857142857142858</v>
       </c>
       <c r="H12" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="J12" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="K12" t="s">
         <v>1003</v>
       </c>
       <c r="L12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="M12" t="s">
-        <v>83</v>
+        <v>567</v>
       </c>
       <c r="N12" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="O12" t="n">
         <v>46.0</v>
       </c>
       <c r="P12" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.0</v>
+        <v>90.0</v>
       </c>
       <c r="R12" t="n">
         <v>12.0</v>
@@ -19780,22 +19777,22 @@
         <v>1.7142857142857142</v>
       </c>
       <c r="T12" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="U12" t="n">
-        <v>1.375</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="V12" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="W12" t="s">
         <v>181</v>
       </c>
       <c r="X12" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="Y12" t="s">
-        <v>1014</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13">
@@ -19869,7 +19866,7 @@
         <v>713</v>
       </c>
       <c r="X13" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="Y13" t="s">
         <v>438</v>
@@ -19913,7 +19910,7 @@
         <v>84</v>
       </c>
       <c r="M14" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="N14" t="n">
         <v>17.0</v>
@@ -19949,7 +19946,7 @@
         <v>577</v>
       </c>
       <c r="Y14" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="15">
@@ -20067,7 +20064,7 @@
         <v>231</v>
       </c>
       <c r="M16" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="N16" t="n">
         <v>17.0</v>
@@ -20144,7 +20141,7 @@
         <v>227</v>
       </c>
       <c r="M17" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="N17" t="n">
         <v>16.0</v>
@@ -20257,7 +20254,7 @@
         <v>332</v>
       </c>
       <c r="Y18" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="19">
@@ -20298,7 +20295,7 @@
         <v>67</v>
       </c>
       <c r="M19" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="N19" t="n">
         <v>17.0</v>
@@ -20405,7 +20402,7 @@
         <v>18.0</v>
       </c>
       <c r="W20" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="X20" t="s">
         <v>408</v>
@@ -20449,7 +20446,7 @@
         <v>228</v>
       </c>
       <c r="L21" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="M21" t="s">
         <v>443</v>
@@ -20543,7 +20540,7 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
@@ -20584,7 +20581,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C2" t="n">
         <v>34.0</v>
@@ -20661,7 +20658,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C3" t="n">
         <v>51.0</v>
@@ -20688,13 +20685,13 @@
         <v>37.0</v>
       </c>
       <c r="K3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="L3" t="s">
         <v>340</v>
       </c>
       <c r="M3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="N3" t="n">
         <v>20.0</v>
@@ -20738,7 +20735,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C4" t="n">
         <v>38.0</v>
@@ -20815,7 +20812,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C5" t="n">
         <v>41.0</v>
@@ -20878,13 +20875,13 @@
         <v>18.0</v>
       </c>
       <c r="W5" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="X5" t="s">
         <v>95</v>
       </c>
       <c r="Y5" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="6">
@@ -20892,7 +20889,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C6" t="n">
         <v>44.0</v>
@@ -20961,7 +20958,7 @@
         <v>84</v>
       </c>
       <c r="Y6" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="7">
@@ -20969,7 +20966,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C7" t="n">
         <v>48.0</v>
@@ -21046,7 +21043,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C8" t="n">
         <v>38.0</v>
@@ -21079,7 +21076,7 @@
         <v>343</v>
       </c>
       <c r="M8" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="N8" t="n">
         <v>20.0</v>
@@ -21123,7 +21120,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C9" t="n">
         <v>44.0</v>
@@ -21200,7 +21197,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C10" t="n">
         <v>34.0</v>
@@ -21266,7 +21263,7 @@
         <v>105</v>
       </c>
       <c r="X10" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="Y10" t="s">
         <v>258</v>
@@ -21277,7 +21274,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C11" t="n">
         <v>36.0</v>
@@ -21354,7 +21351,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C12" t="n">
         <v>72.0</v>
@@ -21387,7 +21384,7 @@
         <v>298</v>
       </c>
       <c r="M12" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="N12" t="n">
         <v>20.0</v>
@@ -21420,10 +21417,10 @@
         <v>182</v>
       </c>
       <c r="X12" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="Y12" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="13">
@@ -21431,7 +21428,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C13" t="n">
         <v>40.0</v>
@@ -21464,7 +21461,7 @@
         <v>84</v>
       </c>
       <c r="M13" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="N13" t="n">
         <v>20.0</v>
@@ -21500,7 +21497,7 @@
         <v>228</v>
       </c>
       <c r="Y13" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="14">
@@ -21508,7 +21505,7 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C14" t="n">
         <v>31.0</v>
@@ -21541,7 +21538,7 @@
         <v>355</v>
       </c>
       <c r="M14" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="N14" t="n">
         <v>20.0</v>
@@ -21585,7 +21582,7 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C15" t="n">
         <v>43.0</v>
@@ -21662,22 +21659,22 @@
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C16" t="n">
-        <v>53.0</v>
+        <v>55.0</v>
       </c>
       <c r="D16" t="n">
         <v>39.0</v>
       </c>
       <c r="E16" t="n">
-        <v>92.0</v>
+        <v>94.0</v>
       </c>
       <c r="F16" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.7</v>
+        <v>1.7272727272727273</v>
       </c>
       <c r="H16" t="n">
         <v>9.0</v>
@@ -21686,34 +21683,34 @@
         <v>1.0</v>
       </c>
       <c r="J16" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="K16" t="s">
-        <v>454</v>
+        <v>793</v>
       </c>
       <c r="L16" t="s">
         <v>596</v>
       </c>
       <c r="M16" t="s">
-        <v>434</v>
+        <v>494</v>
       </c>
       <c r="N16" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="O16" t="n">
-        <v>52.0</v>
+        <v>55.0</v>
       </c>
       <c r="P16" t="n">
         <v>38.0</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="R16" t="n">
         <v>20.0</v>
       </c>
       <c r="S16" t="n">
-        <v>2.0</v>
+        <v>1.8181818181818181</v>
       </c>
       <c r="T16" t="n">
         <v>11.0</v>
@@ -21725,13 +21722,13 @@
         <v>31.0</v>
       </c>
       <c r="W16" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="X16" t="s">
         <v>338</v>
       </c>
       <c r="Y16" t="s">
-        <v>959</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17">
@@ -21739,7 +21736,7 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C17" t="n">
         <v>44.0</v>
@@ -21772,7 +21769,7 @@
         <v>79</v>
       </c>
       <c r="M17" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="N17" t="n">
         <v>20.0</v>
@@ -21816,7 +21813,7 @@
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C18" t="n">
         <v>47.0</v>
@@ -21882,10 +21879,10 @@
         <v>184</v>
       </c>
       <c r="X18" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="Y18" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="19">
@@ -21893,16 +21890,16 @@
         <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C19" t="n">
         <v>29.0</v>
       </c>
       <c r="D19" t="n">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
       <c r="E19" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="F19" t="n">
         <v>6.0</v>
@@ -21914,7 +21911,7 @@
         <v>10.0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.1111111111111112</v>
+        <v>1.0</v>
       </c>
       <c r="J19" t="n">
         <v>16.0</v>
@@ -21923,22 +21920,22 @@
         <v>493</v>
       </c>
       <c r="L19" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="M19" t="s">
-        <v>105</v>
+        <v>687</v>
       </c>
       <c r="N19" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="O19" t="n">
         <v>31.0</v>
       </c>
       <c r="P19" t="n">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.0</v>
+        <v>75.0</v>
       </c>
       <c r="R19" t="n">
         <v>12.0</v>
@@ -21947,22 +21944,22 @@
         <v>1.2</v>
       </c>
       <c r="T19" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.2222222222222223</v>
+        <v>1.3</v>
       </c>
       <c r="V19" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="W19" t="s">
         <v>335</v>
       </c>
       <c r="X19" t="s">
-        <v>362</v>
+        <v>270</v>
       </c>
       <c r="Y19" t="s">
-        <v>665</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
@@ -21970,7 +21967,7 @@
         <v>308</v>
       </c>
       <c r="B20" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C20" t="n">
         <v>47.0</v>
@@ -21997,7 +21994,7 @@
         <v>19.0</v>
       </c>
       <c r="K20" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="L20" t="s">
         <v>227</v>
@@ -22047,7 +22044,7 @@
         <v>309</v>
       </c>
       <c r="B21" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C21" t="n">
         <v>44.0</v>
@@ -22116,7 +22113,7 @@
         <v>515</v>
       </c>
       <c r="Y21" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="22">
@@ -22124,7 +22121,7 @@
         <v>376</v>
       </c>
       <c r="B22" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C22" t="n">
         <v>55.0</v>
@@ -22201,7 +22198,7 @@
         <v>377</v>
       </c>
       <c r="B23" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C23" t="n">
         <v>40.0</v>
@@ -22325,7 +22322,7 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
@@ -22366,7 +22363,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C2" t="n">
         <v>40.0</v>
@@ -22443,7 +22440,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C3" t="n">
         <v>31.0</v>
@@ -22476,7 +22473,7 @@
         <v>64</v>
       </c>
       <c r="M3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="N3" t="n">
         <v>16.0</v>
@@ -22512,7 +22509,7 @@
         <v>117</v>
       </c>
       <c r="Y3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="4">
@@ -22520,7 +22517,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C4" t="n">
         <v>33.0</v>
@@ -22597,7 +22594,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C5" t="n">
         <v>39.0</v>
@@ -22666,7 +22663,7 @@
         <v>497</v>
       </c>
       <c r="Y5" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="6">
@@ -22674,7 +22671,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C6" t="n">
         <v>53.0</v>
@@ -22737,13 +22734,13 @@
         <v>24.0</v>
       </c>
       <c r="W6" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="X6" t="s">
         <v>593</v>
       </c>
       <c r="Y6" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="7">
@@ -22751,7 +22748,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C7" t="n">
         <v>47.0</v>
@@ -22820,7 +22817,7 @@
         <v>73</v>
       </c>
       <c r="Y7" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="8">
@@ -22828,16 +22825,16 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C8" t="n">
         <v>38.0</v>
       </c>
       <c r="D8" t="n">
-        <v>36.0</v>
+        <v>40.0</v>
       </c>
       <c r="E8" t="n">
-        <v>74.0</v>
+        <v>78.0</v>
       </c>
       <c r="F8" t="n">
         <v>14.0</v>
@@ -22846,34 +22843,34 @@
         <v>2.0</v>
       </c>
       <c r="H8" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.25</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="J8" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="K8" t="s">
         <v>231</v>
       </c>
       <c r="L8" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="M8" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="N8" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="O8" t="n">
         <v>17.0</v>
       </c>
       <c r="P8" t="n">
-        <v>30.0</v>
+        <v>37.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>47.0</v>
+        <v>54.0</v>
       </c>
       <c r="R8" t="n">
         <v>7.0</v>
@@ -22882,22 +22879,22 @@
         <v>1.0</v>
       </c>
       <c r="T8" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.25</v>
+        <v>1.4444444444444444</v>
       </c>
       <c r="V8" t="n">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="W8" t="s">
         <v>75</v>
       </c>
       <c r="X8" t="s">
-        <v>64</v>
+        <v>208</v>
       </c>
       <c r="Y8" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
@@ -22905,16 +22902,16 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C9" t="n">
         <v>33.0</v>
       </c>
       <c r="D9" t="n">
-        <v>39.0</v>
+        <v>42.0</v>
       </c>
       <c r="E9" t="n">
-        <v>72.0</v>
+        <v>75.0</v>
       </c>
       <c r="F9" t="n">
         <v>10.0</v>
@@ -22926,7 +22923,7 @@
         <v>11.0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.375</v>
+        <v>1.2222222222222223</v>
       </c>
       <c r="J9" t="n">
         <v>21.0</v>
@@ -22935,22 +22932,22 @@
         <v>67</v>
       </c>
       <c r="L9" t="s">
-        <v>597</v>
+        <v>362</v>
       </c>
       <c r="M9" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="N9" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="O9" t="n">
         <v>26.0</v>
       </c>
       <c r="P9" t="n">
-        <v>29.0</v>
+        <v>34.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="R9" t="n">
         <v>7.0</v>
@@ -22959,22 +22956,22 @@
         <v>1.0</v>
       </c>
       <c r="T9" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.5</v>
+        <v>1.4444444444444444</v>
       </c>
       <c r="V9" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="W9" t="s">
         <v>271</v>
       </c>
       <c r="X9" t="s">
-        <v>500</v>
+        <v>355</v>
       </c>
       <c r="Y9" t="s">
-        <v>792</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -22982,22 +22979,22 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C10" t="n">
-        <v>26.0</v>
+        <v>33.0</v>
       </c>
       <c r="D10" t="n">
         <v>28.0</v>
       </c>
       <c r="E10" t="n">
-        <v>54.0</v>
+        <v>61.0</v>
       </c>
       <c r="F10" t="n">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.8571428571428572</v>
+        <v>2.0</v>
       </c>
       <c r="H10" t="n">
         <v>5.0</v>
@@ -23006,34 +23003,34 @@
         <v>0.625</v>
       </c>
       <c r="J10" t="n">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>568</v>
       </c>
       <c r="L10" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="M10" t="s">
-        <v>64</v>
+        <v>1076</v>
       </c>
       <c r="N10" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="O10" t="n">
-        <v>28.0</v>
+        <v>32.0</v>
       </c>
       <c r="P10" t="n">
         <v>35.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="R10" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.75</v>
       </c>
       <c r="T10" t="n">
         <v>19.0</v>
@@ -23042,16 +23039,16 @@
         <v>2.375</v>
       </c>
       <c r="V10" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="W10" t="s">
-        <v>753</v>
+        <v>353</v>
       </c>
       <c r="X10" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="Y10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11">
@@ -23059,7 +23056,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C11" t="n">
         <v>32.0</v>
@@ -23136,7 +23133,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C12" t="n">
         <v>31.0</v>
@@ -23213,7 +23210,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C13" t="n">
         <v>34.0</v>
@@ -23240,7 +23237,7 @@
         <v>25.0</v>
       </c>
       <c r="K13" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="L13" t="s">
         <v>82</v>
@@ -23290,7 +23287,7 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C14" t="n">
         <v>33.0</v>
@@ -23367,7 +23364,7 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C15" t="n">
         <v>36.0</v>
@@ -23400,7 +23397,7 @@
         <v>180</v>
       </c>
       <c r="M15" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="N15" t="n">
         <v>16.0</v>
@@ -23444,7 +23441,7 @@
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C16" t="n">
         <v>28.0</v>
@@ -23507,13 +23504,13 @@
         <v>26.0</v>
       </c>
       <c r="W16" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="X16" t="s">
         <v>123</v>
       </c>
       <c r="Y16" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="17">
@@ -23521,7 +23518,7 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C17" t="n">
         <v>43.0</v>
@@ -23554,7 +23551,7 @@
         <v>84</v>
       </c>
       <c r="M17" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="N17" t="n">
         <v>16.0</v>
@@ -23598,7 +23595,7 @@
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C18" t="n">
         <v>25.0</v>
@@ -23664,7 +23661,7 @@
         <v>257</v>
       </c>
       <c r="X18" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="Y18" t="s">
         <v>577</v>
@@ -23675,22 +23672,22 @@
         <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C19" t="n">
-        <v>30.0</v>
+        <v>35.0</v>
       </c>
       <c r="D19" t="n">
         <v>23.0</v>
       </c>
       <c r="E19" t="n">
-        <v>53.0</v>
+        <v>58.0</v>
       </c>
       <c r="F19" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.75</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="H19" t="n">
         <v>7.0</v>
@@ -23699,34 +23696,34 @@
         <v>1.0</v>
       </c>
       <c r="J19" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="K19" t="s">
-        <v>201</v>
+        <v>123</v>
       </c>
       <c r="L19" t="s">
         <v>361</v>
       </c>
       <c r="M19" t="s">
-        <v>1078</v>
+        <v>713</v>
       </c>
       <c r="N19" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="O19" t="n">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
       <c r="P19" t="n">
         <v>25.0</v>
       </c>
       <c r="Q19" t="n">
-        <v>54.0</v>
+        <v>57.0</v>
       </c>
       <c r="R19" t="n">
         <v>7.0</v>
       </c>
       <c r="S19" t="n">
-        <v>0.875</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="T19" t="n">
         <v>8.0</v>
@@ -23738,13 +23735,13 @@
         <v>15.0</v>
       </c>
       <c r="W19" t="s">
-        <v>86</v>
+        <v>404</v>
       </c>
       <c r="X19" t="s">
         <v>358</v>
       </c>
       <c r="Y19" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
@@ -23752,7 +23749,7 @@
         <v>308</v>
       </c>
       <c r="B20" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C20" t="n">
         <v>38.0</v>
@@ -23785,7 +23782,7 @@
         <v>126</v>
       </c>
       <c r="M20" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="N20" t="n">
         <v>16.0</v>
@@ -23821,7 +23818,7 @@
         <v>594</v>
       </c>
       <c r="Y20" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="21">
@@ -23829,7 +23826,7 @@
         <v>309</v>
       </c>
       <c r="B21" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -23859,10 +23856,10 @@
         <v>427</v>
       </c>
       <c r="L21" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="M21" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="N21" t="n">
         <v>16.0</v>
@@ -23898,7 +23895,7 @@
         <v>287</v>
       </c>
       <c r="Y21" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
   </sheetData>
